--- a/src/main/resources/FinalShark_1205_forR.xlsx
+++ b/src/main/resources/FinalShark_1205_forR.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nancy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\Zoo-Mapper\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C103B4B-366A-43C7-9091-77A78B0E7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11974"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,16 +390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1205</v>
       </c>
@@ -431,7 +441,7 @@
         <v>426.8247899999842</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1205</v>
       </c>
@@ -453,7 +463,7 @@
         <v>419.10164000000805</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1205</v>
       </c>
@@ -475,7 +485,7 @@
         <v>417.77971999999136</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1205</v>
       </c>
@@ -497,7 +507,7 @@
         <v>417.94428000040352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1205</v>
       </c>
@@ -519,7 +529,7 @@
         <v>441.83143000025302</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1205</v>
       </c>
@@ -541,7 +551,7 @@
         <v>430.10601000022143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1205</v>
       </c>
@@ -563,7 +573,7 @@
         <v>419.41270999982953</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1205</v>
       </c>
@@ -585,7 +595,7 @@
         <v>431.09669000003487</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1205</v>
       </c>
@@ -607,7 +617,7 @@
         <v>421.4207300003618</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1205</v>
       </c>
@@ -629,7 +639,7 @@
         <v>437.94338999968022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1205</v>
       </c>
@@ -651,7 +661,7 @@
         <v>437.8893200000748</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1205</v>
       </c>
@@ -673,7 +683,7 @@
         <v>423.11106999963522</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1205</v>
       </c>
@@ -695,7 +705,7 @@
         <v>431.36550999991596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1205</v>
       </c>
@@ -717,7 +727,7 @@
         <v>421.46550999954343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1205</v>
       </c>
@@ -739,7 +749,7 @@
         <v>418.24223999958485</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1205</v>
       </c>
@@ -761,7 +771,7 @@
         <v>418.44395999982953</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1205</v>
       </c>
@@ -783,7 +793,7 @@
         <v>423.76707999967039</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1205</v>
       </c>
@@ -805,7 +815,7 @@
         <v>419.09341999981552</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1205</v>
       </c>
@@ -827,7 +837,7 @@
         <v>431.08071999996901</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1205</v>
       </c>
@@ -849,7 +859,7 @@
         <v>435.72489999979734</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1205</v>
       </c>
@@ -871,7 +881,7 @@
         <v>419.03493999969214</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1205</v>
       </c>
@@ -893,7 +903,7 @@
         <v>420.02661999966949</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1205</v>
       </c>
@@ -915,7 +925,7 @@
         <v>418.98627999983728</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1205</v>
       </c>
@@ -937,7 +947,7 @@
         <v>418.44342000037432</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1205</v>
       </c>
@@ -959,7 +969,7 @@
         <v>418.71839999966323</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1205</v>
       </c>
@@ -981,7 +991,7 @@
         <v>418.95621000044048</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1205</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>421.3064400004223</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1205</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>420.55090000014752</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1205</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>421.67544999998063</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1205</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>420.26169000007212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1205</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>418.83102000039071</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1205</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>423.2406000001356</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1205</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>425.096629999578</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1205</v>
       </c>
@@ -1157,7 +1167,7 @@
         <v>418.95621000044048</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1205</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>418.84960000030696</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1205</v>
       </c>
@@ -1201,7 +1211,7 @@
         <v>421.6519200000912</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1205</v>
       </c>
@@ -1223,7 +1233,7 @@
         <v>439.78029999975115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1205</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>430.17712999973446</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1205</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>419.44605999998748</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1205</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>421.78914000000805</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1205</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>433.18223999999464</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1205</v>
       </c>
@@ -1333,7 +1343,7 @@
         <v>431.66842000000179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1205</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>434.67093000002205</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1205</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>430.69366000033915</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1205</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>434.74906000029296</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1205</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>422.23146999999881</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1205</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>425.89807999972254</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1205</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>438.13802000042051</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1205</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>431.18197000026703</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1205</v>
       </c>
@@ -1509,7 +1519,7 @@
         <v>422.54086999967694</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1205</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>442.24743000045419</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1205</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>436.38920000009239</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1205</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>431.83191000018269</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1205</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>435.78718999959528</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1205</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>437.63124999962747</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1205</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>428.54079999960959</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1205</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>433.10015999991447</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1205</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>440.69324999954551</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1205</v>
       </c>
@@ -1707,7 +1717,7 @@
         <v>434.00507999956608</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1205</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>425.51322999969125</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1205</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>418.96442999970168</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1205</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>423.49866000004113</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1205</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>422.75789000000805</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1205</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>422.63819000031799</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1205</v>
       </c>
@@ -1839,7 +1849,7 @@
         <v>423.83538999967277</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1205</v>
       </c>
@@ -1861,7 +1871,7 @@
         <v>424.00762999989092</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1205</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>420.42296999972314</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1205</v>
       </c>
@@ -1905,7 +1915,7 @@
         <v>425.79581999965012</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1205</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>423.9447400001809</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1205</v>
       </c>
@@ -1949,7 +1959,7 @@
         <v>419.02343999966979</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1205</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>421.30750999972224</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1205</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>418.66920000035316</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1205</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>418.88949999958277</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1205</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>418.58444999996573</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1205</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>424.58437999989837</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1205</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>422.85300000011921</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1205</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>417.41344999987632</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1205</v>
       </c>
@@ -2125,7 +2135,7 @@
         <v>422.64252999983728</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1205</v>
       </c>
@@ -2147,7 +2157,7 @@
         <v>442.6284800004214</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1205</v>
       </c>
@@ -2169,7 +2179,7 @@
         <v>418.7889099996537</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1205</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>424.97745999973267</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1205</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>428.01879000011832</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1205</v>
       </c>
@@ -2235,7 +2245,7 @@
         <v>421.80176999978721</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1205</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>424.69099000003189</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1205</v>
       </c>
@@ -2279,7 +2289,7 @@
         <v>429.34987000003457</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1205</v>
       </c>
@@ -2301,7 +2311,7 @@
         <v>417.97434999980032</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1205</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>435.95074000023305</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1205</v>
       </c>
@@ -2345,7 +2355,7 @@
         <v>418.05087999999523</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1205</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>421.98651000019163</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1205</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>422.48453000001609</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1205</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>425.12122000008821</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1205</v>
       </c>
@@ -2433,7 +2443,7 @@
         <v>423.0902800001204</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>1205</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>418.92832999955863</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>1205</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>419.09068000037223</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>1205</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>422.01439000014216</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>1205</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>423.93164000008255</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>1205</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>420.42023000027984</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1205</v>
       </c>
@@ -2565,7 +2575,7 @@
         <v>419.21808000002056</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>1205</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>445.8567599998787</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1205</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>429.57631999999285</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>1205</v>
       </c>
@@ -2631,7 +2641,7 @@
         <v>418.11156999971718</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1205</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>419.9992800001055</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1205</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>417.67532000038773</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>1205</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>417.94099999964237</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>1205</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>418.76979000028223</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1205</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>436.38478999957442</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1205</v>
       </c>
@@ -2763,7 +2773,7 @@
         <v>423.45280999969691</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1205</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>417.67258000001311</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1205</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>425.1086600003764</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1205</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>417.24562000017613</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1205</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>428.37677999958396</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1205</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>442.76843999978155</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1205</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>429.14661999978125</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1205</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>441.23878000024706</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1205</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>429.27608000021428</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1205</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>421.93838999979198</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1205</v>
       </c>
@@ -2983,7 +2993,7 @@
         <v>418.12086000014096</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1205</v>
       </c>
@@ -3005,7 +3015,7 @@
         <v>422.46922000031918</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1205</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>419.11749000009149</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>1205</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>417.916400000453</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1205</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>423.31278000026941</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>1205</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>418.8802100000903</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1205</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>422.14886000007391</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>1205</v>
       </c>
@@ -3137,7 +3147,7 @@
         <v>417.98037000000477</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1205</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>420.45959999971092</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1205</v>
       </c>
@@ -3181,7 +3191,7 @@
         <v>424.6242800001055</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1205</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>432.22932999953628</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1205</v>
       </c>
@@ -3225,7 +3235,7 @@
         <v>430.00602000020444</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1205</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>418.52049000002444</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1205</v>
       </c>
@@ -3269,7 +3279,7 @@
         <v>423.43470000009984</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1205</v>
       </c>
@@ -3291,7 +3301,7 @@
         <v>437.66894999984652</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1205</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>422.23696000035852</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>1205</v>
       </c>
@@ -3335,7 +3345,7 @@
         <v>422.04225999955088</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1205</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>423.41992999985814</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1205</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>439.82729000039399</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1205</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>419.68219999969006</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1205</v>
       </c>
@@ -3423,7 +3433,7 @@
         <v>425.3284200001508</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1205</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>422.16143000032753</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1205</v>
       </c>
@@ -3467,7 +3477,7 @@
         <v>434.1848799996078</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1205</v>
       </c>
@@ -3489,7 +3499,7 @@
         <v>431.87134000007063</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1205</v>
       </c>
@@ -3511,7 +3521,7 @@
         <v>419.01307999994606</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1205</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>420.67334000021219</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1205</v>
       </c>
@@ -3555,7 +3565,7 @@
         <v>423.25810999982059</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1205</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>421.55133000016212</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1205</v>
       </c>
@@ -3599,7 +3609,7 @@
         <v>418.93816000036895</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1205</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>438.62186000030488</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>1205</v>
       </c>
@@ -3643,7 +3653,7 @@
         <v>419.63468000013381</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>1205</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>426.99583000037819</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>1205</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>432.83942999970168</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>1205</v>
       </c>
@@ -3709,7 +3719,7 @@
         <v>437.31035999953747</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>1205</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>433.14341000001878</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1205</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>421.65084999985993</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>1205</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>423.33136000018567</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1205</v>
       </c>
@@ -3797,7 +3807,7 @@
         <v>432.47314999997616</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1205</v>
       </c>
@@ -3819,7 +3829,7 @@
         <v>418.67248000018299</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1205</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>430.34114999976009</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>1205</v>
       </c>
@@ -3863,7 +3873,7 @@
         <v>418.58665999956429</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1205</v>
       </c>
@@ -3885,7 +3895,7 @@
         <v>421.97228000033647</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1205</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>421.17248999979347</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>1205</v>
       </c>
@@ -3929,7 +3939,7 @@
         <v>422.53318000026047</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1205</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>423.97427999973297</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>1205</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>428.87371999956667</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1205</v>
       </c>
@@ -3995,7 +4005,7 @@
         <v>431.06006000004709</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>1205</v>
       </c>
@@ -4017,7 +4027,7 @@
         <v>421.75585000030696</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1205</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>426.34035000018775</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1205</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>418.16349999979138</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1205</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>429.65165000036359</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1205</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>422.11832000035793</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>1205</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>418.46855000033975</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1205</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>425.30382999964058</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1205</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>434.77752999961376</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>1205</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>418.48606999963522</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1205</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>422.66712999995798</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1205</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>421.94768000021577</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>1205</v>
       </c>
@@ -4259,7 +4269,7 @@
         <v>419.02510999981314</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>1205</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>422.86510000005364</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1205</v>
       </c>
@@ -4303,7 +4313,7 @@
         <v>420.5875199995935</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1205</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>443.0313799995929</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>1205</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>444.06689999997616</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>1205</v>
       </c>
@@ -4369,7 +4379,7 @@
         <v>421.80451000016183</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1205</v>
       </c>
@@ -4391,7 +4401,7 @@
         <v>419.58602000027895</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>1205</v>
       </c>
@@ -4413,7 +4423,7 @@
         <v>425.23111000005156</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1205</v>
       </c>
@@ -4435,7 +4445,7 @@
         <v>418.81625000014901</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>1205</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>424.91074999980628</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>1205</v>
       </c>
@@ -4479,7 +4489,7 @@
         <v>422.53813000023365</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>1205</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>422.72346999961883</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1205</v>
       </c>
@@ -4523,7 +4533,7 @@
         <v>434.21595999971032</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1205</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>435.77082000020891</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1205</v>
       </c>
@@ -4567,7 +4577,7 @@
         <v>429.79882000014186</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1205</v>
       </c>
@@ -4589,7 +4599,7 @@
         <v>418.22967000026256</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1205</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>419.4137800000608</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1205</v>
       </c>
@@ -4633,7 +4643,7 @@
         <v>424.37390999961644</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1205</v>
       </c>
@@ -4655,7 +4665,7 @@
         <v>424.76805000007153</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>1205</v>
       </c>
@@ -4677,7 +4687,7 @@
         <v>421.85859000030905</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>1205</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>425.29834999982268</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1205</v>
       </c>
@@ -4721,7 +4731,7 @@
         <v>439.03344999998808</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>1205</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>440.83212999999523</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>1205</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>427.97013000026345</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>1205</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>418.63530999980867</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>1205</v>
       </c>
@@ -4809,7 +4819,7 @@
         <v>420.28246999997646</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>1205</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>421.54150999989361</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>1205</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>418.73369999974966</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>1205</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>422.25219999998808</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>1205</v>
       </c>
@@ -4897,7 +4907,7 @@
         <v>419.51056000031531</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>1205</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>419.14536000043154</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>1205</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>419.55099999997765</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>1205</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>421.9165300000459</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>1205</v>
       </c>
@@ -4985,7 +4995,7 @@
         <v>420.77340000029653</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>1205</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>425.00860000029206</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1205</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>419.60185999982059</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>1205</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>428.67580999992788</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>1205</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>435.41490000020713</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>1205</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>418.42865000013262</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1205</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>420.63618000037968</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>1205</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>422.42056000046432</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1205</v>
       </c>
@@ -5161,7 +5171,7 @@
         <v>423.45328000001609</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1205</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>422.83114999998361</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>1205</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>422.97491999994963</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1205</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>420.51427000015974</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1205</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>427.19976000022143</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1205</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>418.46801999956369</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>1205</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>423.6309299999848</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1205</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>424.49634999968112</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1205</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>422.00509999971837</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1205</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>419.23993000015616</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>1205</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>423.57847000006586</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>1205</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>431.94393000006676</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>1205</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>434.86710000038147</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1205</v>
       </c>
@@ -5447,7 +5457,7 @@
         <v>436.75654000043869</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>1205</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>425.89159999974072</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1205</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>442.91822000034153</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1205</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>422.61526000034064</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1205</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>418.28541999962181</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>1205</v>
       </c>
@@ -5557,7 +5567,7 @@
         <v>421.26432999968529</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1205</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>423.25263000000268</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>1205</v>
       </c>
@@ -5601,7 +5611,7 @@
         <v>424.44441999960691</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>1205</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>419.73687999974936</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>1205</v>
       </c>
@@ -5645,7 +5655,7 @@
         <v>438.94048000033945</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>1205</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>431.03105000033975</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>1205</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>418.50791999977082</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>1205</v>
       </c>
@@ -5711,7 +5721,7 @@
         <v>427.70873000007123</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>1205</v>
       </c>
@@ -5733,7 +5743,7 @@
         <v>437.63286000024527</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>1205</v>
       </c>
@@ -5755,7 +5765,7 @@
         <v>422.27952999994159</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>1205</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>423.51723999995738</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>1205</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>420.37378000002354</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>1205</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>421.77276999969035</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>1205</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>417.4621000001207</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>1205</v>
       </c>
@@ -5865,7 +5875,7 @@
         <v>422.13683000020683</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>1205</v>
       </c>
@@ -5887,7 +5897,7 @@
         <v>419.14809999987483</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>1205</v>
       </c>
@@ -5909,7 +5919,7 @@
         <v>432.30037999991328</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>1205</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>418.35539999976754</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>1205</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>423.01482000015676</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>1205</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>418.33079999964684</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>1205</v>
       </c>
@@ -5997,7 +6007,7 @@
         <v>418.7397199999541</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>1205</v>
       </c>
@@ -6019,7 +6029,7 @@
         <v>420.66077999956906</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>1205</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>423.09575999993831</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>1205</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>433.76494000013918</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>1205</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>440.09845000039786</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>1205</v>
       </c>
@@ -6107,7 +6117,7 @@
         <v>427.43656000029296</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>1205</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>419.18365000002086</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>1205</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>430.90579999983311</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>1205</v>
       </c>
@@ -6173,7 +6183,7 @@
         <v>424.27063999976963</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>1205</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>419.03220000024885</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>1205</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>423.87476000003517</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>1205</v>
       </c>
@@ -6239,7 +6249,7 @@
         <v>419.67893000040203</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>1205</v>
       </c>
@@ -6261,7 +6271,7 @@
         <v>424.54227000009269</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>1205</v>
       </c>
@@ -6283,7 +6293,7 @@
         <v>421.54203999973834</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>1205</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>428.40197000000626</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>1205</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>418.70856999978423</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>1205</v>
       </c>
@@ -6349,7 +6359,7 @@
         <v>426.99583000037819</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>1205</v>
       </c>
@@ -6371,7 +6381,7 @@
         <v>438.92958999983966</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>1205</v>
       </c>
@@ -6393,7 +6403,7 @@
         <v>421.65526000037789</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>1205</v>
       </c>
@@ -6415,7 +6425,7 @@
         <v>418.25480999983847</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>1205</v>
       </c>
@@ -6437,7 +6447,7 @@
         <v>418.61727000027895</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>1205</v>
       </c>
@@ -6459,7 +6469,7 @@
         <v>422.45939000044018</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>1205</v>
       </c>
@@ -6481,7 +6491,7 @@
         <v>427.20631000027061</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>1205</v>
       </c>
@@ -6503,7 +6513,7 @@
         <v>435.00325000006706</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1205</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>420.1310900002718</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>1205</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>433.00016999989748</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>1205</v>
       </c>
@@ -6569,7 +6579,7 @@
         <v>422.76123000029474</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>1205</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>418.47128999978304</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>1205</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>430.59032000042498</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>1205</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>427.39719999954104</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>1205</v>
       </c>
@@ -6657,7 +6667,7 @@
         <v>418.105019999668</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>1205</v>
       </c>
@@ -6679,7 +6689,7 @@
         <v>424.5231600003317</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>1205</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>430.49956000037491</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>1205</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>436.55864000041038</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>1205</v>
       </c>
@@ -6745,7 +6755,7 @@
         <v>423.33471000008285</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>1205</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>422.37464000005275</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>1205</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>419.40120999980718</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>1205</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>424.72761000040919</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>1205</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>418.80695999972522</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>1205</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>417.5659699998796</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>1205</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>422.4255100004375</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>1205</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v>420.33387000020593</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>1205</v>
       </c>
@@ -6921,7 +6931,7 @@
         <v>418.40130999963731</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>1205</v>
       </c>
@@ -6943,7 +6953,7 @@
         <v>424.28261000011116</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>1205</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>419.24921999964863</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>1205</v>
       </c>
@@ -6987,7 +6997,7 @@
         <v>421.71808999963105</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>1205</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>418.27613000012934</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>1205</v>
       </c>
@@ -7031,7 +7041,7 @@
         <v>421.19106999970973</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>1205</v>
       </c>
@@ -7053,7 +7063,7 @@
         <v>422.01164999976754</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>1205</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>417.79174999985844</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>1205</v>
       </c>
@@ -7097,7 +7107,7 @@
         <v>419.40175000019372</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>1205</v>
       </c>
@@ -7119,7 +7129,7 @@
         <v>419.87683000043035</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>1205</v>
       </c>
@@ -7141,7 +7151,7 @@
         <v>418.67575000040233</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>1205</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>418.6303700003773</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>1205</v>
       </c>
@@ -7185,7 +7195,7 @@
         <v>418.80695999972522</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>1205</v>
       </c>
@@ -7207,7 +7217,7 @@
         <v>417.14501999970526</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>1205</v>
       </c>
@@ -7229,7 +7239,7 @@
         <v>421.1757699996233</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>1205</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>421.74650000035763</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>1205</v>
       </c>
@@ -7273,7 +7283,7 @@
         <v>422.72233999986202</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>1205</v>
       </c>
@@ -7295,7 +7305,7 @@
         <v>419.31319000013173</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>1205</v>
       </c>
@@ -7317,7 +7327,7 @@
         <v>418.51446999981999</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>1205</v>
       </c>
@@ -7339,7 +7349,7 @@
         <v>418.50518000032753</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>1205</v>
       </c>
@@ -7361,7 +7371,7 @@
         <v>418.55056000035256</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>1205</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>418.63638000003994</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>1205</v>
       </c>
@@ -7405,7 +7415,7 @@
         <v>422.64907999988645</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>1205</v>
       </c>
@@ -7427,7 +7437,7 @@
         <v>425.95884000044316</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
         <v>1205</v>
       </c>
@@ -7449,7 +7459,7 @@
         <v>421.53335000015795</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>1205</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>420.82806999981403</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
         <v>1205</v>
       </c>
@@ -7493,7 +7503,7 @@
         <v>419.19569000042975</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>1205</v>
       </c>
@@ -7515,7 +7525,7 @@
         <v>419.32247999962419</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
         <v>1205</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>425.2890499997884</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>1205</v>
       </c>
@@ -7559,7 +7569,7 @@
         <v>421.51195999979973</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>1205</v>
       </c>
@@ -7581,7 +7591,7 @@
         <v>435.54122999962419</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
         <v>1205</v>
       </c>
@@ -7603,7 +7613,7 @@
         <v>429.42707000020891</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>1205</v>
       </c>
@@ -7625,7 +7635,7 @@
         <v>417.34346999973059</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
         <v>1205</v>
       </c>
@@ -7647,7 +7657,7 @@
         <v>421.38951999973506</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>1205</v>
       </c>
@@ -7669,7 +7679,7 @@
         <v>418.92832999955863</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>1205</v>
       </c>
@@ -7691,7 +7701,7 @@
         <v>418.27338999975473</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
         <v>1205</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>424.78282000031322</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>1205</v>
       </c>
@@ -7735,7 +7745,7 @@
         <v>425.00533000007272</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>1205</v>
       </c>
@@ -7757,7 +7767,7 @@
         <v>424.28808999992907</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
         <v>1205</v>
       </c>
@@ -7779,7 +7789,7 @@
         <v>435.89166000019759</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>1205</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>419.18967000022531</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
         <v>1205</v>
       </c>
@@ -7823,7 +7833,7 @@
         <v>424.95012000016868</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>1205</v>
       </c>
@@ -7845,7 +7855,7 @@
         <v>422.29430000018328</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>1205</v>
       </c>
@@ -7867,7 +7877,7 @@
         <v>420.70944000035524</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>1205</v>
       </c>
@@ -7889,7 +7899,7 @@
         <v>417.55668000038713</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
         <v>1205</v>
       </c>
@@ -7911,7 +7921,7 @@
         <v>435.64950000029057</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>1205</v>
       </c>
@@ -7933,7 +7943,7 @@
         <v>422.99022000003606</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
         <v>1205</v>
       </c>
@@ -7955,7 +7965,7 @@
         <v>419.13499999977648</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>1205</v>
       </c>
@@ -7977,7 +7987,7 @@
         <v>418.42263999953866</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
         <v>1205</v>
       </c>
@@ -7999,7 +8009,7 @@
         <v>418.58444999996573</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>1205</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>418.55984999984503</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>1205</v>
       </c>
@@ -8043,7 +8053,7 @@
         <v>418.34556999988854</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
         <v>1205</v>
       </c>
@@ -8065,7 +8075,7 @@
         <v>418.13289000000805</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>1205</v>
       </c>
@@ -8087,7 +8097,7 @@
         <v>418.38600999955088</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
         <v>1205</v>
       </c>
@@ -8109,7 +8119,7 @@
         <v>418.20012999977916</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>1205</v>
       </c>
@@ -8131,7 +8141,7 @@
         <v>418.10228000022471</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
         <v>1205</v>
       </c>
@@ -8153,7 +8163,7 @@
         <v>422.10950000025332</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
         <v>1205</v>
       </c>
@@ -8175,7 +8185,7 @@
         <v>429.70686000026762</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>1205</v>
       </c>
@@ -8197,7 +8207,7 @@
         <v>436.74230999965221</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
         <v>1205</v>
       </c>
@@ -8219,7 +8229,7 @@
         <v>419.74129000026733</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
         <v>1205</v>
       </c>
@@ -8241,7 +8251,7 @@
         <v>422.04552999977022</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>1205</v>
       </c>
@@ -8263,7 +8273,7 @@
         <v>438.81261999998242</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>1205</v>
       </c>
@@ -8285,7 +8295,7 @@
         <v>437.76846999954432</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
         <v>1205</v>
       </c>
@@ -8307,7 +8317,7 @@
         <v>417.74583000037819</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
         <v>1205</v>
       </c>
@@ -8329,7 +8339,7 @@
         <v>422.13028000015765</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>1205</v>
       </c>
@@ -8351,7 +8361,7 @@
         <v>419.36512000020593</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>1205</v>
       </c>
@@ -8373,7 +8383,7 @@
         <v>417.74583000037819</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
         <v>1205</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>425.45963000040501</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
         <v>1205</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>419.67238000035286</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
         <v>1205</v>
       </c>
@@ -8439,7 +8449,7 @@
         <v>417.75184999965131</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
         <v>1205</v>
       </c>
@@ -8461,7 +8471,7 @@
         <v>417.65452999994159</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
         <v>1205</v>
       </c>
@@ -8483,7 +8493,7 @@
         <v>425.72477000020444</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
         <v>1205</v>
       </c>
@@ -8505,7 +8515,7 @@
         <v>433.59724000003189</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
         <v>1205</v>
       </c>
@@ -8527,7 +8537,7 @@
         <v>424.99229000043124</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
         <v>1205</v>
       </c>
@@ -8549,7 +8559,7 @@
         <v>424.16397000011057</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>1205</v>
       </c>
@@ -8571,7 +8581,7 @@
         <v>422.06632000021636</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
         <v>1205</v>
       </c>
@@ -8593,7 +8603,7 @@
         <v>419.46685000043362</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>1205</v>
       </c>
@@ -8615,7 +8625,7 @@
         <v>422.28447999991477</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
         <v>1205</v>
       </c>
@@ -8637,7 +8647,7 @@
         <v>436.12665999960154</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>1205</v>
       </c>
@@ -8659,7 +8669,7 @@
         <v>421.19161000009626</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>1205</v>
       </c>
@@ -8681,7 +8691,7 @@
         <v>421.2670700000599</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>1205</v>
       </c>
@@ -8703,7 +8713,7 @@
         <v>418.52924000006169</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
         <v>1205</v>
       </c>
@@ -8725,7 +8735,7 @@
         <v>431.61976000014693</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
         <v>1205</v>
       </c>
@@ -8747,7 +8757,7 @@
         <v>421.40154999960214</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>1205</v>
       </c>
@@ -8769,7 +8779,7 @@
         <v>424.20988999959081</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>1205</v>
       </c>
@@ -8791,7 +8801,7 @@
         <v>430.69204999972135</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
         <v>1205</v>
       </c>
@@ -8813,7 +8823,7 @@
         <v>431.69797000009567</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
         <v>1205</v>
       </c>
@@ -8835,7 +8845,7 @@
         <v>441.20923999976367</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>1205</v>
       </c>
@@ -8857,7 +8867,7 @@
         <v>429.49705000035465</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
         <v>1205</v>
       </c>
@@ -8879,7 +8889,7 @@
         <v>418.77907999977469</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>1205</v>
       </c>
@@ -8901,7 +8911,7 @@
         <v>425.19448000006378</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
         <v>1205</v>
       </c>
@@ -8923,7 +8933,7 @@
         <v>417.61462999973446</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>1205</v>
       </c>
@@ -8945,7 +8955,7 @@
         <v>423.44177999999374</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>1205</v>
       </c>
@@ -8967,7 +8977,7 @@
         <v>417.99292999971658</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
         <v>1205</v>
       </c>
@@ -8989,7 +8999,7 @@
         <v>419.02343999966979</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
         <v>1205</v>
       </c>
@@ -9011,7 +9021,7 @@
         <v>419.53081000037491</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>1205</v>
       </c>
@@ -9033,7 +9043,7 @@
         <v>422.6206700000912</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>1205</v>
       </c>
@@ -9055,7 +9065,7 @@
         <v>422.33040000032634</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
         <v>1205</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>434.3800499998033</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>1205</v>
       </c>
@@ -9099,7 +9109,7 @@
         <v>423.59984999988228</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
         <v>1205</v>
       </c>
@@ -9121,7 +9131,7 @@
         <v>425.16987999994308</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>1205</v>
       </c>
@@ -9143,7 +9153,7 @@
         <v>421.95590000040829</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>1205</v>
       </c>
@@ -9165,7 +9175,7 @@
         <v>421.45074000023305</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
         <v>1205</v>
       </c>
@@ -9187,7 +9197,7 @@
         <v>423.17229000013322</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
         <v>1205</v>
       </c>
@@ -9209,7 +9219,7 @@
         <v>436.6127100000158</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>1205</v>
       </c>
@@ -9231,7 +9241,7 @@
         <v>422.38392999954522</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>1205</v>
       </c>
@@ -9253,7 +9263,7 @@
         <v>428.22324999980628</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>1205</v>
       </c>
@@ -9275,7 +9285,7 @@
         <v>431.05886000022292</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>1205</v>
       </c>
@@ -9297,7 +9307,7 @@
         <v>436.11309000011533</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>1205</v>
       </c>
@@ -9319,7 +9329,7 @@
         <v>419.90584000013769</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>1205</v>
       </c>
@@ -9341,7 +9351,7 @@
         <v>432.69739000033587</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>1205</v>
       </c>
@@ -9363,7 +9373,7 @@
         <v>425.48321999981999</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>1205</v>
       </c>
@@ -9385,7 +9395,7 @@
         <v>418.43687000032514</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>1205</v>
       </c>
@@ -9407,7 +9417,7 @@
         <v>423.25865000020713</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>1205</v>
       </c>
@@ -9429,7 +9439,7 @@
         <v>431.68699999991804</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>1205</v>
       </c>
@@ -9451,7 +9461,7 @@
         <v>436.07258999999613</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>1205</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>430.36521000042558</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>1205</v>
       </c>
@@ -9495,7 +9505,7 @@
         <v>424.2919600000605</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>1205</v>
       </c>
@@ -9517,7 +9527,7 @@
         <v>420.95653999969363</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
         <v>1205</v>
       </c>
@@ -9539,7 +9549,7 @@
         <v>417.96231999993324</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
         <v>1205</v>
       </c>
@@ -9561,7 +9571,7 @@
         <v>419.06006999965757</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
         <v>1205</v>
       </c>
@@ -9583,7 +9593,7 @@
         <v>424.71886000037193</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
         <v>1205</v>
       </c>
@@ -9605,7 +9615,7 @@
         <v>420.34095999971032</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>1205</v>
       </c>
@@ -9627,7 +9637,7 @@
         <v>419.03548000007868</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
         <v>1205</v>
       </c>
@@ -9649,7 +9659,7 @@
         <v>419.3345100004226</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>1205</v>
       </c>
@@ -9671,7 +9681,7 @@
         <v>418.42590999975801</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>1205</v>
       </c>
@@ -9693,7 +9703,7 @@
         <v>420.07199999969453</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
         <v>1205</v>
       </c>
@@ -9715,7 +9725,7 @@
         <v>418.37724999990314</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
         <v>1205</v>
       </c>
@@ -9737,7 +9747,7 @@
         <v>424.79813000001013</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>1205</v>
       </c>
@@ -9759,7 +9769,7 @@
         <v>419.15304000023752</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
         <v>1205</v>
       </c>
@@ -9781,7 +9791,7 @@
         <v>423.93216999992728</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>1205</v>
       </c>
@@ -9803,7 +9813,7 @@
         <v>420.33440999966115</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
         <v>1205</v>
       </c>
@@ -9825,7 +9835,7 @@
         <v>436.55375999957323</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
         <v>1205</v>
       </c>
@@ -9847,7 +9857,7 @@
         <v>424.6488800002262</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>1205</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>419.0655500004068</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
         <v>1205</v>
       </c>
@@ -9891,7 +9901,7 @@
         <v>437.23704000003636</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
         <v>1205</v>
       </c>
@@ -9913,7 +9923,7 @@
         <v>422.00241999980062</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>1205</v>
       </c>
@@ -9935,7 +9945,7 @@
         <v>418.37069999985397</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
         <v>1205</v>
       </c>
@@ -9957,7 +9967,7 @@
         <v>424.85934999957681</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>1205</v>
       </c>
@@ -9979,7 +9989,7 @@
         <v>417.26092000026256</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>1205</v>
       </c>
@@ -10001,7 +10011,7 @@
         <v>418.37672000005841</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
         <v>1205</v>
       </c>
@@ -10023,7 +10033,7 @@
         <v>432.50430000014603</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>1205</v>
       </c>
@@ -10045,7 +10055,7 @@
         <v>437.04248000029474</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
         <v>1205</v>
       </c>
@@ -10067,7 +10077,7 @@
         <v>418.71733000036329</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
         <v>1205</v>
       </c>
@@ -10089,7 +10099,7 @@
         <v>421.57538999989629</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>1205</v>
       </c>
@@ -10111,7 +10121,7 @@
         <v>418.42263999953866</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
         <v>1205</v>
       </c>
@@ -10133,7 +10143,7 @@
         <v>436.23708000034094</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
         <v>1205</v>
       </c>
@@ -10155,7 +10165,7 @@
         <v>435.93269999977201</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>1205</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>419.55867999978364</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
         <v>1205</v>
       </c>
@@ -10199,7 +10209,7 @@
         <v>423.59377000015229</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>1205</v>
       </c>
@@ -10221,7 +10231,7 @@
         <v>420.7280200002715</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
         <v>1205</v>
       </c>
@@ -10243,7 +10253,7 @@
         <v>424.47176000010222</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>1205</v>
       </c>
@@ -10265,7 +10275,7 @@
         <v>435.75109999999404</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
         <v>1205</v>
       </c>
@@ -10287,7 +10297,7 @@
         <v>432.40216999966651</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>1205</v>
       </c>
@@ -10309,7 +10319,7 @@
         <v>418.63257000036538</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
         <v>1205</v>
       </c>
@@ -10331,7 +10341,7 @@
         <v>417.82510000001639</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>1205</v>
       </c>
@@ -10353,7 +10363,7 @@
         <v>420.23108000028878</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>1205</v>
       </c>
@@ -10375,7 +10385,7 @@
         <v>419.82215999998152</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
         <v>1205</v>
       </c>
@@ -10397,7 +10407,7 @@
         <v>423.56642999965698</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
         <v>1205</v>
       </c>
@@ -10419,7 +10429,7 @@
         <v>418.62000999972224</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
         <v>1205</v>
       </c>
@@ -10441,7 +10451,7 @@
         <v>417.24562000017613</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>1205</v>
       </c>
@@ -10463,7 +10473,7 @@
         <v>419.90142999961972</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
         <v>1205</v>
       </c>
@@ -10485,7 +10495,7 @@
         <v>417.46812000032514</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>1205</v>
       </c>
@@ -10507,7 +10517,7 @@
         <v>419.48376000020653</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
         <v>1205</v>
       </c>
@@ -10529,7 +10539,7 @@
         <v>416.81264000013471</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>1205</v>
       </c>
@@ -10551,7 +10561,7 @@
         <v>425.66301000025123</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>1205</v>
       </c>
@@ -10573,7 +10583,7 @@
         <v>424.67949000000954</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
         <v>1205</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>423.27943000011146</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>1205</v>
       </c>
@@ -10617,7 +10627,7 @@
         <v>423.23785999976099</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
         <v>1205</v>
       </c>
@@ -10639,7 +10649,7 @@
         <v>423.17609999980778</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>1205</v>
       </c>
@@ -10661,7 +10671,7 @@
         <v>429.28918999992311</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>1205</v>
       </c>
@@ -10683,7 +10693,7 @@
         <v>435.44938999973238</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
         <v>1205</v>
       </c>
@@ -10705,7 +10715,7 @@
         <v>418.31274999957532</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
         <v>1205</v>
       </c>
@@ -10727,7 +10737,7 @@
         <v>425.8619900001213</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>1205</v>
       </c>
@@ -10749,7 +10759,7 @@
         <v>421.49070999957621</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>1205</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>423.95021999999881</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
         <v>1205</v>
       </c>
@@ -10793,7 +10803,7 @@
         <v>424.189100000076</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
         <v>1205</v>
       </c>
@@ -10815,7 +10825,7 @@
         <v>440.06883999984711</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>1205</v>
       </c>
@@ -10837,7 +10847,7 @@
         <v>446.34334000013769</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
         <v>1205</v>
       </c>
@@ -10859,7 +10869,7 @@
         <v>419.81835000030696</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>1205</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>425.48696000035852</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>1205</v>
       </c>
@@ -10903,7 +10913,7 @@
         <v>423.32916000019759</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
         <v>1205</v>
       </c>
@@ -10925,7 +10935,7 @@
         <v>437.72188999969512</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>1205</v>
       </c>
@@ -10947,7 +10957,7 @@
         <v>436.76530000008643</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
         <v>1205</v>
       </c>
@@ -10969,7 +10979,7 @@
         <v>443.25061000045389</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>1205</v>
       </c>
@@ -10991,7 +11001,7 @@
         <v>417.8005100004375</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
         <v>1205</v>
       </c>
@@ -11013,7 +11023,7 @@
         <v>421.8372600004077</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>1205</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>429.66968999989331</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
         <v>1205</v>
       </c>
@@ -11057,7 +11067,7 @@
         <v>429.13231999985874</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
         <v>1205</v>
       </c>
@@ -11079,7 +11089,7 @@
         <v>418.44395999982953</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
         <v>1205</v>
       </c>
@@ -11101,7 +11111,7 @@
         <v>419.11201000027359</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
         <v>1205</v>
       </c>
@@ -11123,7 +11133,7 @@
         <v>425.19775000028312</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
         <v>1205</v>
       </c>
@@ -11145,7 +11155,7 @@
         <v>426.46172999963164</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
         <v>1205</v>
       </c>
@@ -11167,7 +11177,7 @@
         <v>419.05025000032037</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
         <v>1205</v>
       </c>
@@ -11189,7 +11199,7 @@
         <v>424.44115000031888</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
         <v>1205</v>
       </c>
@@ -11211,7 +11221,7 @@
         <v>417.99894999992102</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
         <v>1205</v>
       </c>
@@ -11233,7 +11243,7 @@
         <v>420.32679000031203</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
         <v>1205</v>
       </c>
@@ -11255,7 +11265,7 @@
         <v>419.59805000014603</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
         <v>1205</v>
       </c>
@@ -11277,7 +11287,7 @@
         <v>420.32237999979407</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
         <v>1205</v>
       </c>
@@ -11299,7 +11309,7 @@
         <v>419.03273999970406</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
         <v>1205</v>
       </c>
@@ -11321,7 +11331,7 @@
         <v>425.40168000012636</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
         <v>1205</v>
       </c>
@@ -11343,7 +11353,7 @@
         <v>420.06926000025123</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
         <v>1205</v>
       </c>
@@ -11365,7 +11375,7 @@
         <v>428.16029000002891</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
         <v>1205</v>
       </c>
@@ -11387,7 +11397,7 @@
         <v>423.38009000010788</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
         <v>1205</v>
       </c>
@@ -11409,7 +11419,7 @@
         <v>419.85718000028282</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>6</v>
       </c>
@@ -11431,7 +11441,7 @@
         <v>430.04145000036806</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>6</v>
       </c>
@@ -11453,7 +11463,7 @@
         <v>436.32237000018358</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
         <v>6</v>
       </c>
@@ -11475,7 +11485,7 @@
         <v>439.89011999964714</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>6</v>
       </c>
@@ -11497,7 +11507,7 @@
         <v>429.8402699995786</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
         <v>6</v>
       </c>
@@ -11519,7 +11529,7 @@
         <v>429.28591000009328</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>6</v>
       </c>
@@ -11541,7 +11551,7 @@
         <v>429.53521999996156</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="6" t="s">
         <v>6</v>
       </c>
@@ -11563,7 +11573,7 @@
         <v>439.62657999992371</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>6</v>
       </c>
@@ -11585,7 +11595,7 @@
         <v>430.12239000014961</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
         <v>6</v>
       </c>
@@ -11607,7 +11617,7 @@
         <v>432.12158999964595</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="6" t="s">
         <v>6</v>
       </c>
@@ -11629,7 +11639,7 @@
         <v>427.70003999955952</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="6" t="s">
         <v>6</v>
       </c>
@@ -11651,7 +11661,7 @@
         <v>436.58698000013828</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="6" t="s">
         <v>6</v>
       </c>
@@ -11673,7 +11683,7 @@
         <v>438.23153000045568</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="6" t="s">
         <v>6</v>
       </c>
@@ -11695,7 +11705,7 @@
         <v>432.60596000030637</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>6</v>
       </c>
@@ -11717,7 +11727,7 @@
         <v>440.80205999966711</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="6" t="s">
         <v>6</v>
       </c>
@@ -11739,7 +11749,7 @@
         <v>431.81326000019908</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>6</v>
       </c>
@@ -11761,7 +11771,7 @@
         <v>438.11015000008047</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
         <v>6</v>
       </c>
@@ -11783,7 +11793,7 @@
         <v>431.37700999993831</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="6" t="s">
         <v>6</v>
       </c>
@@ -11805,7 +11815,7 @@
         <v>445.27178999967873</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="6" t="s">
         <v>6</v>
       </c>
@@ -11827,7 +11837,7 @@
         <v>423.6124200001359</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>6</v>
       </c>
@@ -11849,7 +11859,7 @@
         <v>429.09295000042766</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="6" t="s">
         <v>6</v>
       </c>
@@ -11871,7 +11881,7 @@
         <v>427.85362999979407</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="6" t="s">
         <v>6</v>
       </c>
@@ -11893,7 +11903,7 @@
         <v>435.92441000044346</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="6" t="s">
         <v>6</v>
       </c>
@@ -11915,7 +11925,7 @@
         <v>436.40330999996513</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="6" t="s">
         <v>6</v>
       </c>
@@ -11937,7 +11947,7 @@
         <v>428.36368000041693</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="6" t="s">
         <v>6</v>
       </c>
@@ -11959,7 +11969,7 @@
         <v>426.81764000002295</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="6" t="s">
         <v>6</v>
       </c>
@@ -11981,7 +11991,7 @@
         <v>427.46710999961942</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="6" t="s">
         <v>6</v>
       </c>
@@ -12003,7 +12013,7 @@
         <v>438.97056000027806</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="6" t="s">
         <v>6</v>
       </c>
@@ -12025,7 +12035,7 @@
         <v>444.03241000045091</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="6" t="s">
         <v>6</v>
       </c>
@@ -12047,7 +12057,7 @@
         <v>431.06046000029892</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="6" t="s">
         <v>6</v>
       </c>
@@ -12069,7 +12079,7 @@
         <v>432.74098000023514</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="6" t="s">
         <v>6</v>
       </c>
@@ -12091,7 +12101,7 @@
         <v>436.09384999983013</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="6" t="s">
         <v>6</v>
       </c>
@@ -12113,7 +12123,7 @@
         <v>429.2984800003469</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="6" t="s">
         <v>6</v>
       </c>
@@ -12135,7 +12145,7 @@
         <v>436.18788999971002</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="6" t="s">
         <v>6</v>
       </c>
@@ -12157,7 +12167,7 @@
         <v>429.97747999988496</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="6" t="s">
         <v>6</v>
       </c>
@@ -12179,7 +12189,7 @@
         <v>430.32952000014484</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="6" t="s">
         <v>6</v>
       </c>
@@ -12201,7 +12211,7 @@
         <v>429.54884999990463</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="6" t="s">
         <v>6</v>
       </c>
@@ -12223,7 +12233,7 @@
         <v>435.01413999963552</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="6" t="s">
         <v>6</v>
       </c>
@@ -12245,7 +12255,7 @@
         <v>430.09391999989748</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="6" t="s">
         <v>6</v>
       </c>
@@ -12267,7 +12277,7 @@
         <v>434.8227800000459</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="6" t="s">
         <v>6</v>
       </c>
@@ -12289,7 +12299,7 @@
         <v>431.76841000001878</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="6" t="s">
         <v>6</v>
       </c>
@@ -12311,7 +12321,7 @@
         <v>430.08241999987513</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="6" t="s">
         <v>6</v>
       </c>
@@ -12333,7 +12343,7 @@
         <v>434.0027499999851</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="6" t="s">
         <v>6</v>
       </c>
@@ -12355,7 +12365,7 @@
         <v>429.55487000010908</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="6" t="s">
         <v>6</v>
       </c>
@@ -12377,7 +12387,7 @@
         <v>433.55446000024676</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="6" t="s">
         <v>6</v>
       </c>
@@ -12399,7 +12409,7 @@
         <v>430.94510000012815</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="6" t="s">
         <v>6</v>
       </c>
@@ -12421,7 +12431,7 @@
         <v>432.19811999984086</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="6" t="s">
         <v>6</v>
       </c>
@@ -12443,7 +12453,7 @@
         <v>433.20402999967337</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="6" t="s">
         <v>6</v>
       </c>
@@ -12465,7 +12475,7 @@
         <v>432.37798000033945</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="6" t="s">
         <v>6</v>
       </c>
@@ -12487,7 +12497,7 @@
         <v>430.41100000031292</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="6" t="s">
         <v>6</v>
       </c>
@@ -12509,7 +12519,7 @@
         <v>430.07153000030667</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="6" t="s">
         <v>6</v>
       </c>
@@ -12531,7 +12541,7 @@
         <v>433.56983000040054</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="6" t="s">
         <v>6</v>
       </c>
@@ -12553,7 +12563,7 @@
         <v>428.49435000028461</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="6" t="s">
         <v>6</v>
       </c>
@@ -12575,7 +12585,7 @@
         <v>432.38566000014544</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="6" t="s">
         <v>6</v>
       </c>
@@ -12597,7 +12607,7 @@
         <v>430.68604000005871</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="6" t="s">
         <v>6</v>
       </c>
@@ -12619,7 +12629,7 @@
         <v>428.89123000018299</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="6" t="s">
         <v>6</v>
       </c>
@@ -12641,7 +12651,7 @@
         <v>433.80269999988377</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="6" t="s">
         <v>6</v>
       </c>
@@ -12663,7 +12673,7 @@
         <v>431.79796000011265</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="6" t="s">
         <v>6</v>
       </c>
@@ -12685,7 +12695,7 @@
         <v>429.86653000023216</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="6" t="s">
         <v>6</v>
       </c>
@@ -12707,7 +12717,7 @@
         <v>434.29141999967396</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="6" t="s">
         <v>6</v>
       </c>
@@ -12729,7 +12739,7 @@
         <v>438.31895000021905</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="6" t="s">
         <v>6</v>
       </c>
@@ -12751,7 +12761,7 @@
         <v>440.56477999966592</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="6" t="s">
         <v>6</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>445.49863999988884</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="6" t="s">
         <v>6</v>
       </c>
@@ -12795,7 +12805,7 @@
         <v>445.35159999970347</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="6" t="s">
         <v>6</v>
       </c>
@@ -12817,7 +12827,7 @@
         <v>441.27379999961704</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="6" t="s">
         <v>6</v>
       </c>
@@ -12839,7 +12849,7 @@
         <v>441.7724099997431</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="6" t="s">
         <v>6</v>
       </c>
@@ -12861,7 +12871,7 @@
         <v>440.12298000045121</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
         <v>6</v>
       </c>
@@ -12883,7 +12893,7 @@
         <v>433.38723000045866</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>6</v>
       </c>
@@ -12905,7 +12915,7 @@
         <v>429.73472999967635</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>6</v>
       </c>
@@ -12927,7 +12937,7 @@
         <v>435.90142000000924</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="6" t="s">
         <v>6</v>
       </c>
@@ -12949,7 +12959,7 @@
         <v>432.28454000037163</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="6" t="s">
         <v>6</v>
       </c>
@@ -12971,7 +12981,7 @@
         <v>432.25499999988824</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="6" t="s">
         <v>6</v>
       </c>
@@ -12993,7 +13003,7 @@
         <v>434.3067300003022</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
         <v>6</v>
       </c>
@@ -13015,7 +13025,7 @@
         <v>430.7368299998343</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>6</v>
       </c>
@@ -13037,7 +13047,7 @@
         <v>434.02132999990135</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>6</v>
       </c>
@@ -13059,7 +13069,7 @@
         <v>433.31230999995023</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="6" t="s">
         <v>6</v>
       </c>
@@ -13081,7 +13091,7 @@
         <v>434.82773000001907</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
         <v>6</v>
       </c>
@@ -13103,7 +13113,7 @@
         <v>435.47939999960363</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="6" t="s">
         <v>6</v>
       </c>
@@ -13125,7 +13135,7 @@
         <v>434.95839999988675</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="6" t="s">
         <v>6</v>
       </c>
@@ -13147,7 +13157,7 @@
         <v>428.83054000046104</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="6" t="s">
         <v>6</v>
       </c>
@@ -13169,7 +13179,7 @@
         <v>430.6575600001961</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="6" t="s">
         <v>6</v>
       </c>
@@ -13191,7 +13201,7 @@
         <v>435.76365999970585</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="6" t="s">
         <v>6</v>
       </c>
@@ -13213,7 +13223,7 @@
         <v>431.71922000031918</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="6" t="s">
         <v>6</v>
       </c>
@@ -13235,7 +13245,7 @@
         <v>431.54705000016838</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="6" t="s">
         <v>6</v>
       </c>
@@ -13257,7 +13267,7 @@
         <v>431.42786999978125</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="6" t="s">
         <v>6</v>
       </c>
@@ -13279,7 +13289,7 @@
         <v>430.27163999993354</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="6" t="s">
         <v>6</v>
       </c>
@@ -13301,7 +13311,7 @@
         <v>434.05475000012666</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="6" t="s">
         <v>6</v>
       </c>
@@ -13323,7 +13333,7 @@
         <v>423.43637000024319</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="6" t="s">
         <v>6</v>
       </c>
@@ -13345,7 +13355,7 @@
         <v>433.94539999961853</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="6" t="s">
         <v>6</v>
       </c>
@@ -13367,7 +13377,7 @@
         <v>429.9167999997735</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="6" t="s">
         <v>6</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>432.74265000037849</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="6" t="s">
         <v>6</v>
       </c>
@@ -13411,7 +13421,7 @@
         <v>433.39866000041366</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="6" t="s">
         <v>6</v>
       </c>
@@ -13433,7 +13443,7 @@
         <v>432.12760000023991</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="6" t="s">
         <v>6</v>
       </c>
@@ -13455,7 +13465,7 @@
         <v>433.16084999963641</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="6" t="s">
         <v>6</v>
       </c>
@@ -13477,7 +13487,7 @@
         <v>436.01898999977857</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="6" t="s">
         <v>6</v>
       </c>
@@ -13499,7 +13509,7 @@
         <v>430.11636999994516</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="6" t="s">
         <v>6</v>
       </c>
@@ -13521,7 +13531,7 @@
         <v>427.87000999972224</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="6" t="s">
         <v>6</v>
       </c>
@@ -13543,7 +13553,7 @@
         <v>432.3746999995783</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>6</v>
       </c>
@@ -13565,7 +13575,7 @@
         <v>434.12138000037521</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="6" t="s">
         <v>6</v>
       </c>
@@ -13587,7 +13597,7 @@
         <v>435.38095000013709</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="6" t="s">
         <v>6</v>
       </c>
@@ -13609,7 +13619,7 @@
         <v>431.24688000045717</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="6" t="s">
         <v>6</v>
       </c>
@@ -13631,7 +13641,7 @@
         <v>435.98015000019222</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="6" t="s">
         <v>6</v>
       </c>
@@ -13653,7 +13663,7 @@
         <v>431.801230000332</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="6" t="s">
         <v>6</v>
       </c>
@@ -13675,7 +13685,7 @@
         <v>430.40338000003248</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="6" t="s">
         <v>6</v>
       </c>
@@ -13697,7 +13707,7 @@
         <v>433.44517999980599</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="6" t="s">
         <v>6</v>
       </c>
@@ -13719,7 +13729,7 @@
         <v>426.60336000006646</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="6" t="s">
         <v>6</v>
       </c>
@@ -13741,7 +13751,7 @@
         <v>433.62504000030458</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="6" t="s">
         <v>6</v>
       </c>
@@ -13763,7 +13773,7 @@
         <v>433.17454999964684</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="6" t="s">
         <v>6</v>
       </c>
@@ -13785,7 +13795,7 @@
         <v>429.39144999999553</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="6" t="s">
         <v>6</v>
       </c>
@@ -13807,7 +13817,7 @@
         <v>435.35802000015974</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="6" t="s">
         <v>6</v>
       </c>
@@ -13829,7 +13839,7 @@
         <v>430.56405999977142</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="6" t="s">
         <v>6</v>
       </c>
@@ -13851,7 +13861,7 @@
         <v>433.85075999982655</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="6" t="s">
         <v>6</v>
       </c>
@@ -13873,7 +13883,7 @@
         <v>429.88618000037968</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="6" t="s">
         <v>6</v>
       </c>
@@ -13895,7 +13905,7 @@
         <v>430.2989100003615</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="6" t="s">
         <v>6</v>
       </c>
@@ -13917,7 +13927,7 @@
         <v>432.62127000000328</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="6" t="s">
         <v>6</v>
       </c>
@@ -13939,7 +13949,7 @@
         <v>430.08463000040501</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="6" t="s">
         <v>6</v>
       </c>
@@ -13961,7 +13971,7 @@
         <v>432.83227999974042</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="6" t="s">
         <v>6</v>
       </c>
@@ -13983,7 +13993,7 @@
         <v>431.40435000043362</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="6" t="s">
         <v>6</v>
       </c>
@@ -14005,7 +14015,7 @@
         <v>431.14353999961168</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="6" t="s">
         <v>6</v>
       </c>
@@ -14027,7 +14037,7 @@
         <v>430.34269000031054</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="6" t="s">
         <v>6</v>
       </c>
@@ -14049,7 +14059,7 @@
         <v>432.1336799999699</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="6" t="s">
         <v>6</v>
       </c>
@@ -14071,7 +14081,7 @@
         <v>442.57105999998748</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="6" t="s">
         <v>6</v>
       </c>
@@ -14093,7 +14103,7 @@
         <v>429.03780999965966</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="6" t="s">
         <v>6</v>
       </c>
@@ -14115,7 +14125,7 @@
         <v>428.46640999987721</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="6" t="s">
         <v>6</v>
       </c>
@@ -14137,7 +14147,7 @@
         <v>428.98861000034958</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="6" t="s">
         <v>6</v>
       </c>
@@ -14159,7 +14169,7 @@
         <v>435.39572000037879</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="6" t="s">
         <v>6</v>
       </c>
@@ -14181,7 +14191,7 @@
         <v>431.97080000024289</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="6" t="s">
         <v>6</v>
       </c>
@@ -14203,7 +14213,7 @@
         <v>426.27752000000328</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="6" t="s">
         <v>6</v>
       </c>
@@ -14225,7 +14235,7 @@
         <v>423.44565999973565</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="6" t="s">
         <v>6</v>
       </c>
@@ -14247,7 +14257,7 @@
         <v>428.06517999991775</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="6" t="s">
         <v>6</v>
       </c>
@@ -14269,7 +14279,7 @@
         <v>441.77180999983102</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="6" t="s">
         <v>6</v>
       </c>
@@ -14291,7 +14301,7 @@
         <v>425.56027999985963</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="6" t="s">
         <v>6</v>
       </c>
@@ -14313,7 +14323,7 @@
         <v>442.50984000042081</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="6" t="s">
         <v>6</v>
       </c>
@@ -14335,7 +14345,7 @@
         <v>442.21355000045151</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="6" t="s">
         <v>6</v>
       </c>
@@ -14357,7 +14367,7 @@
         <v>437.84827999956906</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="6" t="s">
         <v>6</v>
       </c>
@@ -14379,7 +14389,7 @@
         <v>424.46580999996513</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="6" t="s">
         <v>6</v>
       </c>
@@ -14401,7 +14411,7 @@
         <v>441.14694000035524</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="6" t="s">
         <v>6</v>
       </c>
@@ -14423,7 +14433,7 @@
         <v>432.95538999978453</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="6" t="s">
         <v>6</v>
       </c>
@@ -14445,7 +14455,7 @@
         <v>435.26786000002176</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="6" t="s">
         <v>6</v>
       </c>
@@ -14467,7 +14477,7 @@
         <v>436.19557000044733</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="6" t="s">
         <v>6</v>
       </c>
@@ -14489,7 +14499,7 @@
         <v>431.3546200003475</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="6" t="s">
         <v>6</v>
       </c>
@@ -14511,7 +14521,7 @@
         <v>435.07430000044405</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="6" t="s">
         <v>6</v>
       </c>
@@ -14533,7 +14543,7 @@
         <v>432.15935000032187</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="6" t="s">
         <v>6</v>
       </c>
@@ -14555,7 +14565,7 @@
         <v>432.52668999973685</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="6" t="s">
         <v>6</v>
       </c>
@@ -14577,7 +14587,7 @@
         <v>434.31654999963939</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="6" t="s">
         <v>6</v>
       </c>
@@ -14599,7 +14609,7 @@
         <v>430.09611999988556</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="6" t="s">
         <v>6</v>
       </c>
@@ -14621,7 +14631,7 @@
         <v>434.24657000042498</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="6" t="s">
         <v>6</v>
       </c>
@@ -14643,7 +14653,7 @@
         <v>434.7615599995479</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="6" t="s">
         <v>6</v>
       </c>
@@ -14665,7 +14675,7 @@
         <v>432.33920999988914</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="6" t="s">
         <v>6</v>
       </c>
@@ -14687,7 +14697,7 @@
         <v>435.81285999994725</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="6" t="s">
         <v>6</v>
       </c>
@@ -14709,7 +14719,7 @@
         <v>430.96535000018775</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="6" t="s">
         <v>6</v>
       </c>
@@ -14731,7 +14741,7 @@
         <v>429.2941300002858</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="6" t="s">
         <v>6</v>
       </c>
@@ -14753,7 +14763,7 @@
         <v>428.84203999955207</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="6" t="s">
         <v>6</v>
       </c>
@@ -14775,7 +14785,7 @@
         <v>431.3300200002268</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="6" t="s">
         <v>6</v>
       </c>
@@ -14797,7 +14807,7 @@
         <v>435.75872000027448</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="6" t="s">
         <v>6</v>
       </c>
@@ -14819,7 +14829,7 @@
         <v>432.19704999960959</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="6" t="s">
         <v>6</v>
       </c>
@@ -14841,7 +14851,7 @@
         <v>435.63078999985009</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="6" t="s">
         <v>6</v>
       </c>
@@ -14863,7 +14873,7 @@
         <v>431.09107999969274</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="6" t="s">
         <v>6</v>
       </c>
@@ -14885,7 +14895,7 @@
         <v>428.85840999986976</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="6" t="s">
         <v>6</v>
       </c>
@@ -14907,7 +14917,7 @@
         <v>435.35254000034183</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="6" t="s">
         <v>6</v>
       </c>
@@ -14929,7 +14939,7 @@
         <v>430.74177999980748</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="6" t="s">
         <v>6</v>
       </c>
@@ -14951,7 +14961,7 @@
         <v>428.83488999959081</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="6" t="s">
         <v>6</v>
       </c>
@@ -14973,7 +14983,7 @@
         <v>435.15790999960154</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="6" t="s">
         <v>6</v>
       </c>
@@ -14995,7 +15005,7 @@
         <v>433.37299999967217</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="6" t="s">
         <v>6</v>
       </c>
@@ -15017,7 +15027,7 @@
         <v>427.89407000038773</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="6" t="s">
         <v>6</v>
       </c>
@@ -15039,7 +15049,7 @@
         <v>435.19734000042081</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="6" t="s">
         <v>6</v>
       </c>
@@ -15061,7 +15071,7 @@
         <v>435.69314999971539</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="6" t="s">
         <v>6</v>
       </c>
@@ -15083,7 +15093,7 @@
         <v>432.81644000019878</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="6" t="s">
         <v>6</v>
       </c>
@@ -15105,7 +15115,7 @@
         <v>435.09836000017822</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="6" t="s">
         <v>6</v>
       </c>
@@ -15127,7 +15137,7 @@
         <v>433.57591999974102</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="6" t="s">
         <v>6</v>
       </c>
@@ -15149,7 +15159,7 @@
         <v>440.97970999963582</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="6" t="s">
         <v>6</v>
       </c>
@@ -15171,7 +15181,7 @@
         <v>437.21518999990076</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="6" t="s">
         <v>6</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>432.86134999990463</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="6" t="s">
         <v>6</v>
       </c>
@@ -15215,7 +15225,7 @@
         <v>427.98263000044972</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="6" t="s">
         <v>6</v>
       </c>
@@ -15237,7 +15247,7 @@
         <v>432.42884000018239</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="6" t="s">
         <v>6</v>
       </c>
@@ -15259,7 +15269,7 @@
         <v>431.75858999975026</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="6" t="s">
         <v>6</v>
       </c>
@@ -15281,7 +15291,7 @@
         <v>434.93707999959588</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="6" t="s">
         <v>6</v>
       </c>
@@ -15303,7 +15313,7 @@
         <v>431.81659999955446</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="6" t="s">
         <v>6</v>
       </c>
@@ -15325,7 +15335,7 @@
         <v>429.54784999974072</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="6" t="s">
         <v>6</v>
       </c>
@@ -15347,7 +15357,7 @@
         <v>437.79033000022173</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="6" t="s">
         <v>6</v>
       </c>
@@ -15369,7 +15379,7 @@
         <v>426.30379000026733</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="6" t="s">
         <v>6</v>
       </c>
@@ -15391,7 +15401,7 @@
         <v>437.27527999971062</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="6" t="s">
         <v>6</v>
       </c>
@@ -15413,7 +15423,7 @@
         <v>437.83404000010341</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="6" t="s">
         <v>6</v>
       </c>
@@ -15435,7 +15445,7 @@
         <v>431.38523000013083</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="6" t="s">
         <v>6</v>
       </c>
@@ -15457,7 +15467,7 @@
         <v>432.83942999970168</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="6" t="s">
         <v>6</v>
       </c>
@@ -15479,7 +15489,7 @@
         <v>433.30307999998331</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="6" t="s">
         <v>6</v>
       </c>
@@ -15501,7 +15511,7 @@
         <v>431.22181000001729</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="6" t="s">
         <v>6</v>
       </c>
@@ -15523,7 +15533,7 @@
         <v>437.91057000029832</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="6" t="s">
         <v>6</v>
       </c>
@@ -15545,7 +15555,7 @@
         <v>436.19337000045925</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="6" t="s">
         <v>6</v>
       </c>
@@ -15567,7 +15577,7 @@
         <v>427.32388000003994</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="6" t="s">
         <v>6</v>
       </c>
@@ -15589,7 +15599,7 @@
         <v>420.13764000032097</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="6" t="s">
         <v>6</v>
       </c>
@@ -15611,7 +15621,7 @@
         <v>429.8867199998349</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="6" t="s">
         <v>6</v>
       </c>
@@ -15633,7 +15643,7 @@
         <v>433.77094999980181</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="6" t="s">
         <v>6</v>
       </c>
@@ -15655,7 +15665,7 @@
         <v>434.70856000017375</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="6" t="s">
         <v>6</v>
       </c>
@@ -15677,7 +15687,7 @@
         <v>435.95555999968201</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="6" t="s">
         <v>6</v>
       </c>
@@ -15699,7 +15709,7 @@
         <v>432.36708000022918</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="6" t="s">
         <v>6</v>
       </c>
@@ -15721,7 +15731,7 @@
         <v>426.99749999959022</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="6" t="s">
         <v>6</v>
       </c>
@@ -15743,7 +15753,7 @@
         <v>429.91077999956906</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="6" t="s">
         <v>6</v>
       </c>
@@ -15765,7 +15775,7 @@
         <v>431.66127000004053</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="6" t="s">
         <v>6</v>
       </c>
@@ -15787,7 +15797,7 @@
         <v>433.69495999999344</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="6" t="s">
         <v>6</v>
       </c>
@@ -15809,7 +15819,7 @@
         <v>432.89683999959379</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="6" t="s">
         <v>6</v>
       </c>
@@ -15831,7 +15841,7 @@
         <v>442.63776999991387</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="6" t="s">
         <v>6</v>
       </c>
@@ -15853,7 +15863,7 @@
         <v>433.58567999955267</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="6" t="s">
         <v>6</v>
       </c>
@@ -15875,7 +15885,7 @@
         <v>428.36254000011832</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="6" t="s">
         <v>6</v>
       </c>
@@ -15897,7 +15907,7 @@
         <v>435.91017000004649</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="6" t="s">
         <v>6</v>
       </c>
@@ -15919,7 +15929,7 @@
         <v>432.11397000029683</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="6" t="s">
         <v>6</v>
       </c>
@@ -15941,7 +15951,7 @@
         <v>429.79542000032961</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="6" t="s">
         <v>6</v>
       </c>
@@ -15963,7 +15973,7 @@
         <v>434.82993999961764</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="6" t="s">
         <v>6</v>
       </c>
@@ -15985,7 +15995,7 @@
         <v>441.13057000003755</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="6" t="s">
         <v>6</v>
       </c>
@@ -16007,7 +16017,7 @@
         <v>432.95533000025898</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="6" t="s">
         <v>6</v>
       </c>
@@ -16029,7 +16039,7 @@
         <v>434.62433999963105</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="6" t="s">
         <v>6</v>
       </c>
@@ -16051,7 +16061,7 @@
         <v>431.36443999968469</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="6" t="s">
         <v>6</v>
       </c>
@@ -16073,7 +16083,7 @@
         <v>437.58581000007689</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="6" t="s">
         <v>6</v>
       </c>
@@ -16095,7 +16105,7 @@
         <v>436.82211000006646</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="6" t="s">
         <v>6</v>
       </c>
@@ -16117,7 +16127,7 @@
         <v>444.27843999955803</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="6" t="s">
         <v>6</v>
       </c>
@@ -16139,7 +16149,7 @@
         <v>430.38640000019222</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="6" t="s">
         <v>6</v>
       </c>
@@ -16161,7 +16171,7 @@
         <v>432.1933000003919</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
         <v>6</v>
       </c>
@@ -16183,7 +16193,7 @@
         <v>428.02252999972552</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="6" t="s">
         <v>6</v>
       </c>
@@ -16205,7 +16215,7 @@
         <v>437.84982000011951</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="6" t="s">
         <v>6</v>
       </c>
@@ -16227,7 +16237,7 @@
         <v>426.83569000009447</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="6" t="s">
         <v>6</v>
       </c>
@@ -16249,7 +16259,7 @@
         <v>434.39910000003874</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="6" t="s">
         <v>6</v>
       </c>
@@ -16271,7 +16281,7 @@
         <v>428.91315000038594</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="6" t="s">
         <v>6</v>
       </c>
@@ -16293,7 +16303,7 @@
         <v>442.00635000038892</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="6" t="s">
         <v>6</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>429.61402000021189</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="6" t="s">
         <v>6</v>
       </c>
@@ -16337,7 +16347,7 @@
         <v>434.84410999994725</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="6" t="s">
         <v>6</v>
       </c>
@@ -16359,7 +16369,7 @@
         <v>431.76900999993086</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="6" t="s">
         <v>6</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>432.60054999962449</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="6" t="s">
         <v>6</v>
       </c>
@@ -16403,7 +16413,7 @@
         <v>432.71590999979526</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="6" t="s">
         <v>6</v>
       </c>
@@ -16425,7 +16435,7 @@
         <v>428.71685000043362</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="6" t="s">
         <v>6</v>
       </c>
@@ -16447,7 +16457,7 @@
         <v>432.44802000001073</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="6" t="s">
         <v>6</v>
       </c>
@@ -16469,7 +16479,7 @@
         <v>434.91301999986172</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="6" t="s">
         <v>6</v>
       </c>
@@ -16491,7 +16501,7 @@
         <v>435.33449999988079</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="6" t="s">
         <v>6</v>
       </c>
@@ -16513,7 +16523,7 @@
         <v>433.00559000018984</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="6" t="s">
         <v>6</v>
       </c>
@@ -16535,7 +16545,7 @@
         <v>433.9633799996227</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="6" t="s">
         <v>6</v>
       </c>
@@ -16557,7 +16567,7 @@
         <v>429.63961999956518</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="6" t="s">
         <v>6</v>
       </c>
@@ -16579,7 +16589,7 @@
         <v>427.0461600003764</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="6" t="s">
         <v>6</v>
       </c>
@@ -16601,7 +16611,7 @@
         <v>440.26628000009805</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="6" t="s">
         <v>6</v>
       </c>
@@ -16623,7 +16633,7 @@
         <v>425.70404999982566</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="6" t="s">
         <v>6</v>
       </c>
@@ -16645,7 +16655,7 @@
         <v>440.67846999969333</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="6" t="s">
         <v>6</v>
       </c>
@@ -16667,7 +16677,7 @@
         <v>427.55566999968141</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="6" t="s">
         <v>6</v>
       </c>
@@ -16689,7 +16699,7 @@
         <v>441.4973799996078</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="6" t="s">
         <v>6</v>
       </c>
@@ -16711,7 +16721,7 @@
         <v>428.74258000031114</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="6" t="s">
         <v>6</v>
       </c>
@@ -16733,7 +16743,7 @@
         <v>441.96423999965191</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="6" t="s">
         <v>6</v>
       </c>
@@ -16755,7 +16765,7 @@
         <v>428.74531999975443</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="6" t="s">
         <v>6</v>
       </c>
@@ -16777,7 +16787,7 @@
         <v>441.31477000005543</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>6</v>
       </c>
@@ -16799,7 +16809,7 @@
         <v>435.73632999975234</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="6" t="s">
         <v>6</v>
       </c>
@@ -16821,7 +16831,7 @@
         <v>432.12927000038326</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="6" t="s">
         <v>6</v>
       </c>
@@ -16843,7 +16853,7 @@
         <v>432.75795000046492</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="6" t="s">
         <v>6</v>
       </c>
@@ -16865,7 +16875,7 @@
         <v>434.84083000011742</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="6" t="s">
         <v>6</v>
       </c>
@@ -16887,7 +16897,7 @@
         <v>432.54473999980837</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="6" t="s">
         <v>6</v>
       </c>
@@ -16909,7 +16919,7 @@
         <v>431.73780000023544</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="6" t="s">
         <v>6</v>
       </c>
@@ -16931,7 +16941,7 @@
         <v>434.02900999970734</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="6" t="s">
         <v>6</v>
       </c>
@@ -16953,7 +16963,7 @@
         <v>435.83423999976367</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="6" t="s">
         <v>6</v>
       </c>
@@ -16975,7 +16985,7 @@
         <v>440.71724000014365</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="6" t="s">
         <v>6</v>
       </c>
@@ -16997,7 +17007,7 @@
         <v>430.42796999961138</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="6" t="s">
         <v>6</v>
       </c>
@@ -17019,7 +17029,7 @@
         <v>433.98476999998093</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="6" t="s">
         <v>6</v>
       </c>
@@ -17041,7 +17051,7 @@
         <v>427.83337999973446</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="6" t="s">
         <v>6</v>
       </c>
@@ -17063,7 +17073,7 @@
         <v>431.73072000034153</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="6" t="s">
         <v>6</v>
       </c>
@@ -17085,7 +17095,7 @@
         <v>434.98245999962091</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="6" t="s">
         <v>6</v>
       </c>
@@ -17107,7 +17117,7 @@
         <v>427.81479999981821</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="6" t="s">
         <v>6</v>
       </c>
@@ -17129,7 +17139,7 @@
         <v>431.92207000032067</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="6" t="s">
         <v>6</v>
       </c>
@@ -17151,7 +17161,7 @@
         <v>434.51506000012159</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="6" t="s">
         <v>6</v>
       </c>
@@ -17173,7 +17183,7 @@
         <v>428.78569000028074</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="6" t="s">
         <v>6</v>
       </c>
@@ -17195,7 +17205,7 @@
         <v>428.61625999957323</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="6" t="s">
         <v>6</v>
       </c>
@@ -17217,7 +17227,7 @@
         <v>433.12810000032187</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="6" t="s">
         <v>6</v>
       </c>
@@ -17239,7 +17249,7 @@
         <v>434.44013999961317</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="6" t="s">
         <v>6</v>
       </c>
@@ -17261,7 +17271,7 @@
         <v>431.01948999986053</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="6" t="s">
         <v>6</v>
       </c>
@@ -17283,7 +17293,7 @@
         <v>432.75246999971569</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="6" t="s">
         <v>6</v>
       </c>
@@ -17305,7 +17315,7 @@
         <v>431.78486000001431</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="6" t="s">
         <v>6</v>
       </c>
@@ -17327,7 +17337,7 @@
         <v>429.92882999964058</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="6" t="s">
         <v>6</v>
       </c>
@@ -17349,7 +17359,7 @@
         <v>433.77916999999434</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="6" t="s">
         <v>6</v>
       </c>
@@ -17371,7 +17381,7 @@
         <v>428.98414000030607</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="6" t="s">
         <v>6</v>
       </c>
@@ -17393,7 +17403,7 @@
         <v>434.08148000016809</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="6" t="s">
         <v>6</v>
       </c>
@@ -17415,7 +17425,7 @@
         <v>431.01948999986053</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="6" t="s">
         <v>6</v>
       </c>
@@ -17437,7 +17447,7 @@
         <v>431.07416000030935</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="6" t="s">
         <v>6</v>
       </c>
@@ -17459,7 +17469,7 @@
         <v>428.90981000009924</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="6" t="s">
         <v>6</v>
       </c>
@@ -17481,7 +17491,7 @@
         <v>438.11388999968767</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="6" t="s">
         <v>6</v>
       </c>
@@ -17503,7 +17513,7 @@
         <v>437.89360000006855</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="6" t="s">
         <v>6</v>
       </c>
@@ -17525,7 +17535,7 @@
         <v>428.77699999976903</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="6" t="s">
         <v>6</v>
       </c>
@@ -17547,7 +17557,7 @@
         <v>439.73431999981403</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="6" t="s">
         <v>6</v>
       </c>
@@ -17569,7 +17579,7 @@
         <v>439.13131000008434</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="6" t="s">
         <v>6</v>
       </c>
@@ -17591,7 +17601,7 @@
         <v>437.69675999972969</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="6" t="s">
         <v>6</v>
       </c>
@@ -17613,7 +17623,7 @@
         <v>430.69967000000179</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="6" t="s">
         <v>6</v>
       </c>
@@ -17635,7 +17645,7 @@
         <v>434.09298000019044</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="6" t="s">
         <v>6</v>
       </c>
@@ -17657,7 +17667,7 @@
         <v>428.26802999991924</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="6" t="s">
         <v>6</v>
       </c>
@@ -17679,7 +17689,7 @@
         <v>429.77964000031352</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="6" t="s">
         <v>6</v>
       </c>
@@ -17701,7 +17711,7 @@
         <v>431.38408999983221</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="6" t="s">
         <v>6</v>
       </c>
@@ -17723,7 +17733,7 @@
         <v>437.29994000028819</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="6" t="s">
         <v>6</v>
       </c>
@@ -17745,7 +17755,7 @@
         <v>429.08151999954134</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="6" t="s">
         <v>6</v>
       </c>
@@ -17767,7 +17777,7 @@
         <v>434.67626999970526</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="6" t="s">
         <v>6</v>
       </c>
@@ -17789,7 +17799,7 @@
         <v>432.03201999980956</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="6" t="s">
         <v>6</v>
       </c>
@@ -17811,7 +17821,7 @@
         <v>428.8125</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="6" t="s">
         <v>6</v>
       </c>
@@ -17833,7 +17843,7 @@
         <v>431.36276999954134</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="6" t="s">
         <v>6</v>
       </c>
@@ -17855,7 +17865,7 @@
         <v>441.75490000005811</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="6" t="s">
         <v>6</v>
       </c>
@@ -17877,7 +17887,7 @@
         <v>428.86502999998629</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="6" t="s">
         <v>6</v>
       </c>
@@ -17899,7 +17909,7 @@
         <v>423.518380000256</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="6" t="s">
         <v>6</v>
       </c>
@@ -17921,7 +17931,7 @@
         <v>427.40368000045419</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="6" t="s">
         <v>6</v>
       </c>
@@ -17943,7 +17953,7 @@
         <v>435.21860000025481</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="6" t="s">
         <v>6</v>
       </c>
@@ -17965,7 +17975,7 @@
         <v>433.31116999965161</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="6" t="s">
         <v>6</v>
       </c>
@@ -17987,7 +17997,7 @@
         <v>427.88203999958932</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="6" t="s">
         <v>6</v>
       </c>
@@ -18009,7 +18019,7 @@
         <v>424.32311000023037</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="6" t="s">
         <v>6</v>
       </c>
@@ -18031,7 +18041,7 @@
         <v>427.3353700004518</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="6" t="s">
         <v>6</v>
       </c>
@@ -18053,7 +18063,7 @@
         <v>431.5580099998042</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="6" t="s">
         <v>6</v>
       </c>
@@ -18075,7 +18085,7 @@
         <v>435.69756000023335</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="6" t="s">
         <v>6</v>
       </c>
@@ -18097,7 +18107,7 @@
         <v>425.70297999959439</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="6" t="s">
         <v>6</v>
       </c>
@@ -18119,7 +18129,7 @@
         <v>426.7897699996829</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="6" t="s">
         <v>6</v>
       </c>
@@ -18141,7 +18151,7 @@
         <v>435.10329999960959</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="6" t="s">
         <v>6</v>
       </c>
@@ -18163,7 +18173,7 @@
         <v>435.54069000016898</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="6" t="s">
         <v>6</v>
       </c>
@@ -18185,7 +18195,7 @@
         <v>424.78837000019848</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="6" t="s">
         <v>6</v>
       </c>
@@ -18207,7 +18217,7 @@
         <v>429.33021999988705</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="6" t="s">
         <v>6</v>
       </c>
@@ -18229,7 +18239,7 @@
         <v>435.31811999995261</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="6" t="s">
         <v>6</v>
       </c>
@@ -18251,7 +18261,7 @@
         <v>440.27556999959052</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="6" t="s">
         <v>6</v>
       </c>
@@ -18273,7 +18283,7 @@
         <v>440.76871000044048</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="6" t="s">
         <v>6</v>
       </c>
@@ -18295,7 +18305,7 @@
         <v>437.00418000016361</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="6" t="s">
         <v>6</v>
       </c>
@@ -18317,7 +18327,7 @@
         <v>437.95815999992192</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="6" t="s">
         <v>6</v>
       </c>
@@ -18339,7 +18349,7 @@
         <v>436.14477000012994</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="6" t="s">
         <v>6</v>
       </c>
@@ -18361,7 +18371,7 @@
         <v>437.85209000017494</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="6" t="s">
         <v>6</v>
       </c>
@@ -18383,7 +18393,7 @@
         <v>435.50841000024229</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="6" t="s">
         <v>6</v>
       </c>
@@ -18405,7 +18415,7 @@
         <v>434.17886000033468</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="6" t="s">
         <v>6</v>
       </c>
@@ -18427,7 +18437,7 @@
         <v>437.85702999960631</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="6" t="s">
         <v>6</v>
       </c>
@@ -18449,7 +18459,7 @@
         <v>428.97491000033915</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="6" t="s">
         <v>6</v>
       </c>
@@ -18471,7 +18481,7 @@
         <v>433.19708000030369</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="6" t="s">
         <v>6</v>
       </c>
@@ -18493,7 +18503,7 @@
         <v>433.49284000042826</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="6" t="s">
         <v>6</v>
       </c>
@@ -18515,7 +18525,7 @@
         <v>435.61942999996245</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="6" t="s">
         <v>6</v>
       </c>
@@ -18537,7 +18547,7 @@
         <v>427.1140000000596</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="6" t="s">
         <v>6</v>
       </c>
@@ -18559,7 +18569,7 @@
         <v>436.53129999991506</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="6" t="s">
         <v>6</v>
       </c>
@@ -18581,7 +18591,7 @@
         <v>430.51104999985546</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="6" t="s">
         <v>6</v>
       </c>
@@ -18603,7 +18613,7 @@
         <v>435.27106999978423</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="6" t="s">
         <v>6</v>
       </c>
@@ -18625,7 +18635,7 @@
         <v>438.53825000021607</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="6" t="s">
         <v>6</v>
       </c>
@@ -18647,7 +18657,7 @@
         <v>432.61973000038415</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="6" t="s">
         <v>6</v>
       </c>
@@ -18669,7 +18679,7 @@
         <v>424.35097999963909</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="6" t="s">
         <v>6</v>
       </c>
@@ -18691,7 +18701,7 @@
         <v>429.68066000007093</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="6" t="s">
         <v>6</v>
       </c>
@@ -18713,7 +18723,7 @@
         <v>425.02290000021458</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="6" t="s">
         <v>6</v>
       </c>
@@ -18735,7 +18745,7 @@
         <v>424.11156999971718</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="6" t="s">
         <v>6</v>
       </c>
@@ -18757,7 +18767,7 @@
         <v>436.35250999964774</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="6" t="s">
         <v>6</v>
       </c>
@@ -18779,7 +18789,7 @@
         <v>431.05231000017375</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="6" t="s">
         <v>6</v>
       </c>
@@ -18801,7 +18811,7 @@
         <v>435.70251000020653</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="6" t="s">
         <v>6</v>
       </c>
@@ -18823,7 +18833,7 @@
         <v>435.79822000022978</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="6" t="s">
         <v>6</v>
       </c>
@@ -18845,7 +18855,7 @@
         <v>436.59413000009954</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="6" t="s">
         <v>6</v>
       </c>
@@ -18867,7 +18877,7 @@
         <v>436.48151000030339</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="6" t="s">
         <v>6</v>
       </c>
@@ -18889,7 +18899,7 @@
         <v>440.73696000035852</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="6" t="s">
         <v>6</v>
       </c>
@@ -18911,7 +18921,7 @@
         <v>436.14309999998659</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="6" t="s">
         <v>6</v>
       </c>
@@ -18933,7 +18943,7 @@
         <v>433.2161299996078</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="6" t="s">
         <v>6</v>
       </c>
@@ -18955,7 +18965,7 @@
         <v>430.19510999973863</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="6" t="s">
         <v>6</v>
       </c>
@@ -18977,7 +18987,7 @@
         <v>430.2558000003919</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="6" t="s">
         <v>6</v>
       </c>
@@ -18999,7 +19009,7 @@
         <v>427.30040999967605</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="6" t="s">
         <v>6</v>
       </c>
@@ -19021,7 +19031,7 @@
         <v>432.67714000027627</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="6" t="s">
         <v>6</v>
       </c>
@@ -19043,7 +19053,7 @@
         <v>436.76255999971181</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="6" t="s">
         <v>6</v>
       </c>
@@ -19065,7 +19075,7 @@
         <v>438.98266000021249</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="6" t="s">
         <v>6</v>
       </c>
@@ -19087,7 +19097,7 @@
         <v>439.89673000015318</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="6" t="s">
         <v>6</v>
       </c>
@@ -19109,7 +19119,7 @@
         <v>427.17576000001281</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="6" t="s">
         <v>6</v>
       </c>
@@ -19131,7 +19141,7 @@
         <v>427.19381000008434</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="6" t="s">
         <v>6</v>
       </c>
@@ -19153,7 +19163,7 @@
         <v>426.94945000018924</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="6" t="s">
         <v>6</v>
       </c>
@@ -19175,7 +19185,7 @@
         <v>427.73285999987274</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="6" t="s">
         <v>6</v>
       </c>
@@ -19197,7 +19207,7 @@
         <v>435.46636999957263</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="6" t="s">
         <v>6</v>
       </c>
@@ -19219,7 +19229,7 @@
         <v>438.79951999988407</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="6" t="s">
         <v>6</v>
       </c>
@@ -19241,7 +19251,7 @@
         <v>436.81936999969184</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="6" t="s">
         <v>6</v>
       </c>
@@ -19263,7 +19273,7 @@
         <v>429.34391999989748</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="6" t="s">
         <v>6</v>
       </c>
@@ -19285,7 +19295,7 @@
         <v>427.55680999998003</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="6" t="s">
         <v>6</v>
       </c>
@@ -19307,7 +19317,7 @@
         <v>437.0478900000453</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="6" t="s">
         <v>6</v>
       </c>
@@ -19329,7 +19339,7 @@
         <v>432.9662899998948</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="6" t="s">
         <v>6</v>
       </c>
@@ -19351,7 +19361,7 @@
         <v>427.01173999998719</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="6" t="s">
         <v>6</v>
       </c>
@@ -19373,7 +19383,7 @@
         <v>426.80346999969333</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="6" t="s">
         <v>6</v>
       </c>
@@ -19395,7 +19405,7 @@
         <v>435.0497599998489</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="6" t="s">
         <v>6</v>
       </c>
@@ -19417,7 +19427,7 @@
         <v>435.3952500000596</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" s="6" t="s">
         <v>6</v>
       </c>
@@ -19439,7 +19449,7 @@
         <v>427.6792500000447</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="6" t="s">
         <v>6</v>
       </c>
@@ -19461,7 +19471,7 @@
         <v>431.89372999966145</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" s="6" t="s">
         <v>6</v>
       </c>
@@ -19483,7 +19493,7 @@
         <v>432.24356000032276</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" s="6" t="s">
         <v>6</v>
       </c>
@@ -19505,7 +19515,7 @@
         <v>426.88547999970615</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="6" t="s">
         <v>6</v>
       </c>
@@ -19527,7 +19537,7 @@
         <v>437.64489000011235</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="6" t="s">
         <v>6</v>
       </c>
@@ -19549,7 +19559,7 @@
         <v>437.55800000019372</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="6" t="s">
         <v>6</v>
       </c>
@@ -19571,7 +19581,7 @@
         <v>441.41870999988168</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" s="6" t="s">
         <v>6</v>
       </c>
@@ -19593,7 +19603,7 @@
         <v>434.61077000014484</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="6" t="s">
         <v>6</v>
       </c>
@@ -19615,7 +19625,7 @@
         <v>435.75116000045091</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="6" t="s">
         <v>6</v>
       </c>
@@ -19637,7 +19647,7 @@
         <v>436.91181000042707</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="6" t="s">
         <v>6</v>
       </c>
@@ -19659,7 +19669,7 @@
         <v>442.04196999967098</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="6" t="s">
         <v>6</v>
       </c>
@@ -19681,7 +19691,7 @@
         <v>436.33834000024945</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="6" t="s">
         <v>6</v>
       </c>
@@ -19703,7 +19713,7 @@
         <v>442.74610999971628</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="6" t="s">
         <v>6</v>
       </c>
@@ -19725,7 +19735,7 @@
         <v>440.50408999994397</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="6" t="s">
         <v>6</v>
       </c>
@@ -19747,7 +19757,7 @@
         <v>443.44531000033021</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="6" t="s">
         <v>6</v>
       </c>
@@ -19769,7 +19779,7 @@
         <v>431.84554000012577</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="6" t="s">
         <v>6</v>
       </c>
@@ -19791,7 +19801,7 @@
         <v>436.82378000020981</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="6" t="s">
         <v>6</v>
       </c>
@@ -19813,7 +19823,7 @@
         <v>436.84236000012606</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="6" t="s">
         <v>6</v>
       </c>
@@ -19835,7 +19845,7 @@
         <v>424.89658000040799</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="6" t="s">
         <v>6</v>
       </c>
@@ -19857,7 +19867,7 @@
         <v>433.91806000005454</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="6" t="s">
         <v>6</v>
       </c>
@@ -19879,7 +19889,7 @@
         <v>434.70474999956787</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" s="6" t="s">
         <v>6</v>
       </c>
@@ -19901,7 +19911,7 @@
         <v>438.36875000037253</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" s="6" t="s">
         <v>6</v>
       </c>
@@ -19923,7 +19933,7 @@
         <v>424.13944000005722</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" s="6" t="s">
         <v>6</v>
       </c>
@@ -19945,7 +19955,7 @@
         <v>428.47630000021309</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" s="6" t="s">
         <v>6</v>
       </c>
@@ -19967,7 +19977,7 @@
         <v>434.69653000030667</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" s="6" t="s">
         <v>6</v>
       </c>
@@ -19989,7 +19999,7 @@
         <v>436.60120999999344</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="6" t="s">
         <v>6</v>
       </c>
@@ -20011,7 +20021,7 @@
         <v>423.62992999982089</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" s="6" t="s">
         <v>6</v>
       </c>
@@ -20033,7 +20043,7 @@
         <v>427.33317000046372</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" s="6" t="s">
         <v>6</v>
       </c>
@@ -20055,7 +20065,7 @@
         <v>429.25803999975324</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" s="6" t="s">
         <v>6</v>
       </c>
@@ -20077,7 +20087,7 @@
         <v>438.68309000041336</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" s="6" t="s">
         <v>6</v>
       </c>
@@ -20099,7 +20109,7 @@
         <v>421.43276000022888</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" s="6" t="s">
         <v>6</v>
       </c>
@@ -20121,7 +20131,7 @@
         <v>426.13429000042379</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" s="6" t="s">
         <v>6</v>
       </c>
@@ -20143,7 +20153,7 @@
         <v>429.3066999996081</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" s="6" t="s">
         <v>6</v>
       </c>
@@ -20165,7 +20175,7 @@
         <v>436.48972999956459</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900" s="6" t="s">
         <v>6</v>
       </c>
@@ -20187,7 +20197,7 @@
         <v>435.91672000009567</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901" s="6" t="s">
         <v>6</v>
       </c>
@@ -20209,7 +20219,7 @@
         <v>429.94192999973893</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" s="6" t="s">
         <v>6</v>
       </c>
@@ -20231,7 +20241,7 @@
         <v>435.18197000026703</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="6" t="s">
         <v>6</v>
       </c>
@@ -20253,7 +20263,7 @@
         <v>436.58750999998301</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904" s="6" t="s">
         <v>6</v>
       </c>
@@ -20275,7 +20285,7 @@
         <v>431.75752000045031</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" s="6" t="s">
         <v>6</v>
       </c>
@@ -20297,7 +20307,7 @@
         <v>436.10587999969721</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" s="6" t="s">
         <v>6</v>
       </c>
@@ -20319,7 +20329,7 @@
         <v>432.1549399998039</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" s="6" t="s">
         <v>6</v>
       </c>
@@ -20341,7 +20351,7 @@
         <v>438.12980000022799</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" s="6" t="s">
         <v>6</v>
       </c>
@@ -20363,7 +20373,7 @@
         <v>434.0422499999404</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" s="6" t="s">
         <v>6</v>
       </c>
@@ -20385,7 +20395,7 @@
         <v>437.30594999995083</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" s="6" t="s">
         <v>6</v>
       </c>
@@ -20407,7 +20417,7 @@
         <v>440.89114999957383</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" s="6" t="s">
         <v>6</v>
       </c>
@@ -20429,7 +20439,7 @@
         <v>434.06897999998182</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" s="6" t="s">
         <v>6</v>
       </c>
@@ -20451,7 +20461,7 @@
         <v>434.60041000042111</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" s="6" t="s">
         <v>6</v>
       </c>
@@ -20473,7 +20483,7 @@
         <v>438.84162999968976</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="6" t="s">
         <v>6</v>
       </c>
@@ -20495,7 +20505,7 @@
         <v>438.56116999965161</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" s="6" t="s">
         <v>6</v>
       </c>
@@ -20517,7 +20527,7 @@
         <v>435.50734000001103</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" s="6" t="s">
         <v>6</v>
       </c>
@@ -20539,7 +20549,7 @@
         <v>439.35821999981999</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" s="6" t="s">
         <v>6</v>
       </c>
@@ -20561,7 +20571,7 @@
         <v>433.47518999967724</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" s="6" t="s">
         <v>6</v>
       </c>
@@ -20583,7 +20593,7 @@
         <v>434.50188999995589</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" s="6" t="s">
         <v>6</v>
       </c>
@@ -20605,7 +20615,7 @@
         <v>431.99366000015289</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" s="6" t="s">
         <v>6</v>
       </c>
@@ -20627,7 +20637,7 @@
         <v>431.48636000044644</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" s="6" t="s">
         <v>6</v>
       </c>
@@ -20649,7 +20659,7 @@
         <v>433.95963000040501</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" s="6" t="s">
         <v>6</v>
       </c>
@@ -20671,7 +20681,7 @@
         <v>435.29901000019163</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" s="6" t="s">
         <v>6</v>
       </c>
@@ -20693,7 +20703,7 @@
         <v>435.67136000003666</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" s="6" t="s">
         <v>6</v>
       </c>
@@ -20715,7 +20725,7 @@
         <v>437.36115999985486</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" s="6" t="s">
         <v>6</v>
       </c>
@@ -20737,7 +20747,7 @@
         <v>435.8178700003773</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="6" t="s">
         <v>6</v>
       </c>
@@ -20759,7 +20769,7 @@
         <v>434.67748000007123</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" s="6" t="s">
         <v>6</v>
       </c>
@@ -20781,7 +20791,7 @@
         <v>433.36758000031114</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" s="6" t="s">
         <v>6</v>
       </c>
@@ -20803,7 +20813,7 @@
         <v>437.33169000037014</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="6" t="s">
         <v>6</v>
       </c>
@@ -20825,7 +20835,7 @@
         <v>437.34752999991179</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="6" t="s">
         <v>6</v>
       </c>
@@ -20847,7 +20857,7 @@
         <v>434.31226999964565</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" s="6" t="s">
         <v>6</v>
       </c>
@@ -20869,7 +20879,7 @@
         <v>433.15436999965459</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" s="6" t="s">
         <v>6</v>
       </c>
@@ -20891,7 +20901,7 @@
         <v>436.20600000023842</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="6" t="s">
         <v>6</v>
       </c>
@@ -20913,7 +20923,7 @@
         <v>434.68128999974579</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" s="6" t="s">
         <v>6</v>
       </c>
@@ -20935,7 +20945,7 @@
         <v>437.71927999984473</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" s="6" t="s">
         <v>6</v>
       </c>
@@ -20957,7 +20967,7 @@
         <v>434.5899900002405</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" s="6" t="s">
         <v>6</v>
       </c>
@@ -20979,7 +20989,7 @@
         <v>433.7300500003621</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" s="6" t="s">
         <v>6</v>
       </c>
@@ -21001,7 +21011,7 @@
         <v>441.84126000013202</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" s="6" t="s">
         <v>6</v>
       </c>
@@ -21023,7 +21033,7 @@
         <v>435.62043000012636</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="6" t="s">
         <v>6</v>
       </c>
@@ -21045,7 +21055,7 @@
         <v>442.04846000019461</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" s="6" t="s">
         <v>6</v>
       </c>
@@ -21067,7 +21077,7 @@
         <v>429.46636999957263</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="6" t="s">
         <v>6</v>
       </c>
@@ -21089,7 +21099,7 @@
         <v>431.47432999964803</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="6" t="s">
         <v>6</v>
       </c>
@@ -21111,7 +21121,7 @@
         <v>433.51403000019491</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" s="6" t="s">
         <v>6</v>
       </c>
@@ -21133,7 +21143,7 @@
         <v>432.16368999984115</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" s="6" t="s">
         <v>6</v>
       </c>
@@ -21155,7 +21165,7 @@
         <v>429.23838999960572</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" s="6" t="s">
         <v>6</v>
       </c>
@@ -21177,7 +21187,7 @@
         <v>432.95966999977827</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" s="6" t="s">
         <v>6</v>
       </c>
@@ -21199,7 +21209,7 @@
         <v>430.19892000034451</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="6" t="s">
         <v>6</v>
       </c>
@@ -21221,7 +21231,7 @@
         <v>427.32722000032663</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="6" t="s">
         <v>6</v>
       </c>
@@ -21243,7 +21253,7 @@
         <v>434.11871000006795</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="6" t="s">
         <v>6</v>
       </c>
@@ -21265,7 +21275,7 @@
         <v>437.83457999955863</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="6" t="s">
         <v>6</v>
       </c>
@@ -21287,7 +21297,7 @@
         <v>436.04585000034422</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="6" t="s">
         <v>6</v>
       </c>
@@ -21309,7 +21319,7 @@
         <v>427.87442000024021</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="6" t="s">
         <v>6</v>
       </c>
@@ -21331,7 +21341,7 @@
         <v>437.23651000019163</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" s="6" t="s">
         <v>6</v>
       </c>
@@ -21353,7 +21363,7 @@
         <v>436.6258800001815</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="6" t="s">
         <v>6</v>
       </c>
@@ -21375,7 +21385,7 @@
         <v>429.70746000017971</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="6" t="s">
         <v>6</v>
       </c>
@@ -21397,7 +21407,7 @@
         <v>439.71300000045449</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="6" t="s">
         <v>6</v>
       </c>
@@ -21419,7 +21429,7 @@
         <v>431.65043999999762</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="6" t="s">
         <v>6</v>
       </c>
@@ -21441,7 +21451,7 @@
         <v>442.78100000042468</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="6" t="s">
         <v>6</v>
       </c>
@@ -21463,7 +21473,7 @@
         <v>439.70156999956816</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="6" t="s">
         <v>6</v>
       </c>
@@ -21485,7 +21495,7 @@
         <v>437.95382000040263</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="6" t="s">
         <v>6</v>
       </c>
@@ -21507,7 +21517,7 @@
         <v>433.52606000006199</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" s="6" t="s">
         <v>6</v>
       </c>
@@ -21529,7 +21539,7 @@
         <v>443.31730999983847</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" s="6" t="s">
         <v>6</v>
       </c>
@@ -21551,7 +21561,7 @@
         <v>429.99285999964923</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" s="6" t="s">
         <v>6</v>
       </c>
@@ -21573,7 +21583,7 @@
         <v>436.14035999961197</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" s="6" t="s">
         <v>6</v>
       </c>
@@ -21595,7 +21605,7 @@
         <v>443.76178999990225</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" s="6" t="s">
         <v>6</v>
       </c>
@@ -21617,7 +21627,7 @@
         <v>444.10185999982059</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" s="6" t="s">
         <v>6</v>
       </c>
@@ -21639,7 +21649,7 @@
         <v>437.79528000019491</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" s="6" t="s">
         <v>6</v>
       </c>
@@ -21661,7 +21671,7 @@
         <v>432.30044000037014</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" s="6" t="s">
         <v>6</v>
       </c>
@@ -21683,7 +21693,7 @@
         <v>440.83100000023842</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" s="6" t="s">
         <v>6</v>
       </c>
@@ -21705,7 +21715,7 @@
         <v>434.92183999996632</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" s="6" t="s">
         <v>6</v>
       </c>
@@ -21727,7 +21737,7 @@
         <v>435.41603999957442</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="6" t="s">
         <v>6</v>
       </c>
@@ -21749,7 +21759,7 @@
         <v>432.00521999970078</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" s="6" t="s">
         <v>6</v>
       </c>
@@ -21771,7 +21781,7 @@
         <v>430.13114000018686</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" s="6" t="s">
         <v>6</v>
       </c>
@@ -21793,7 +21803,7 @@
         <v>433.39218000043184</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" s="6" t="s">
         <v>6</v>
       </c>
@@ -21815,7 +21825,7 @@
         <v>433.90443000011146</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" s="6" t="s">
         <v>6</v>
       </c>
@@ -21837,7 +21847,7 @@
         <v>434.64792999997735</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" s="6" t="s">
         <v>6</v>
       </c>
@@ -21859,7 +21869,7 @@
         <v>436.91942999977618</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" s="6" t="s">
         <v>6</v>
       </c>
@@ -21881,7 +21891,7 @@
         <v>432.29662999976426</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" s="6" t="s">
         <v>6</v>
       </c>
@@ -21903,7 +21913,7 @@
         <v>437.81326000019908</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" s="6" t="s">
         <v>6</v>
       </c>
@@ -21925,7 +21935,7 @@
         <v>434.75227000005543</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" s="6" t="s">
         <v>6</v>
       </c>
@@ -21947,7 +21957,7 @@
         <v>438.75741000007838</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" s="6" t="s">
         <v>6</v>
       </c>
@@ -21969,7 +21979,7 @@
         <v>439.06185999978334</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" s="6" t="s">
         <v>6</v>
       </c>
@@ -21991,7 +22001,7 @@
         <v>432.11670999974012</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="6" t="s">
         <v>6</v>
       </c>
@@ -22013,7 +22023,7 @@
         <v>425.20603999961168</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" s="6" t="s">
         <v>6</v>
       </c>
@@ -22035,7 +22045,7 @@
         <v>436.72920999955386</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" s="6" t="s">
         <v>6</v>
       </c>
@@ -22057,7 +22067,7 @@
         <v>429.59484000038356</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" s="6" t="s">
         <v>6</v>
       </c>
@@ -22079,7 +22089,7 @@
         <v>432.29007999971509</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" s="6" t="s">
         <v>6</v>
       </c>
@@ -22101,7 +22111,7 @@
         <v>441.64890000037849</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" s="6" t="s">
         <v>6</v>
       </c>
@@ -22123,7 +22133,7 @@
         <v>432.84817999973893</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" s="6" t="s">
         <v>6</v>
       </c>
@@ -22145,7 +22155,7 @@
         <v>433.57531999982893</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="6" t="s">
         <v>6</v>
       </c>
@@ -22167,7 +22177,7 @@
         <v>438.31187000032514</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" s="6" t="s">
         <v>6</v>
       </c>
@@ -22189,7 +22199,7 @@
         <v>432.87885999958962</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" s="6" t="s">
         <v>6</v>
       </c>
@@ -22211,7 +22221,7 @@
         <v>434.90326000005007</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" s="6" t="s">
         <v>6</v>
       </c>
@@ -22233,7 +22243,7 @@
         <v>437.27374000009149</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" s="6" t="s">
         <v>6</v>
       </c>
@@ -22255,7 +22265,7 @@
         <v>437.5350099997595</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="6" t="s">
         <v>6</v>
       </c>
@@ -22277,7 +22287,7 @@
         <v>438.80393000040203</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" s="6" t="s">
         <v>6</v>
       </c>
@@ -22299,7 +22309,7 @@
         <v>429.66863000020385</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" s="6" t="s">
         <v>6</v>
       </c>
@@ -22321,7 +22331,7 @@
         <v>426.28187000006437</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" s="6" t="s">
         <v>6</v>
       </c>
@@ -22343,7 +22353,7 @@
         <v>424.64840999990702</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" s="6" t="s">
         <v>6</v>
       </c>
@@ -22365,7 +22375,7 @@
         <v>433.92681999970227</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000" s="6" t="s">
         <v>6</v>
       </c>
@@ -22387,7 +22397,7 @@
         <v>425.48923000041395</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1001" s="6" t="s">
         <v>6</v>
       </c>
@@ -22409,7 +22419,7 @@
         <v>428.70535000041127</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1002" s="6" t="s">
         <v>6</v>
       </c>
@@ -22431,7 +22441,7 @@
         <v>431.63566999975592</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1003" s="6" t="s">
         <v>6</v>
       </c>
@@ -22453,7 +22463,7 @@
         <v>420.34209000039846</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1004" s="6" t="s">
         <v>6</v>
       </c>
@@ -22475,7 +22485,7 @@
         <v>439.40962000004947</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1005" s="6" t="s">
         <v>6</v>
       </c>
@@ -22497,7 +22507,7 @@
         <v>429.47018000017852</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1006" s="6" t="s">
         <v>6</v>
       </c>
@@ -22519,7 +22529,7 @@
         <v>432.05822000000626</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="6" t="s">
         <v>6</v>
       </c>
@@ -22541,7 +22551,7 @@
         <v>427.76073000021279</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1008" s="6" t="s">
         <v>6</v>
       </c>
@@ -22563,7 +22573,7 @@
         <v>428.93059999961406</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009" s="6" t="s">
         <v>6</v>
       </c>
@@ -22585,7 +22595,7 @@
         <v>435.85496999975294</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" s="6" t="s">
         <v>6</v>
       </c>
@@ -22607,7 +22617,7 @@
         <v>433.95856000017375</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" s="6" t="s">
         <v>6</v>
       </c>
@@ -22629,7 +22639,7 @@
         <v>427.72517000045627</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" s="6" t="s">
         <v>6</v>
       </c>
@@ -22651,7 +22661,7 @@
         <v>436.76963999960572</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1013" s="6" t="s">
         <v>6</v>
       </c>
@@ -22673,7 +22683,7 @@
         <v>431.57117000035942</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1014" s="6" t="s">
         <v>6</v>
       </c>
@@ -22695,7 +22705,7 @@
         <v>433.97326999995857</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015" s="6" t="s">
         <v>6</v>
       </c>
@@ -22717,7 +22727,7 @@
         <v>435.38262000028044</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016" s="6" t="s">
         <v>6</v>
       </c>
@@ -22739,7 +22749,7 @@
         <v>429.6626099999994</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1017" s="6" t="s">
         <v>6</v>
       </c>
@@ -22761,7 +22771,7 @@
         <v>435.00812999997288</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="6" t="s">
         <v>6</v>
       </c>
@@ -22783,7 +22793,7 @@
         <v>430.11142999958247</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1019" s="6" t="s">
         <v>6</v>
       </c>
@@ -22805,7 +22815,7 @@
         <v>434.76429999992251</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1020" s="6" t="s">
         <v>6</v>
       </c>
@@ -22827,7 +22837,7 @@
         <v>432.62454000022262</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1021" s="6" t="s">
         <v>6</v>
       </c>
@@ -22849,7 +22859,7 @@
         <v>430.19998999964446</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1022" s="6" t="s">
         <v>6</v>
       </c>
@@ -22871,7 +22881,7 @@
         <v>430.32517999969423</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023" s="6" t="s">
         <v>6</v>
       </c>
@@ -22893,7 +22903,7 @@
         <v>427.57043999992311</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1024" s="6" t="s">
         <v>6</v>
       </c>
@@ -22915,7 +22925,7 @@
         <v>438.1189099997282</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025" s="6" t="s">
         <v>6</v>
       </c>
@@ -22937,7 +22947,7 @@
         <v>436.91014000028372</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1026" s="6" t="s">
         <v>6</v>
       </c>
@@ -22959,7 +22969,7 @@
         <v>439.83879000041634</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027" s="6" t="s">
         <v>6</v>
       </c>
@@ -22981,7 +22991,7 @@
         <v>434.84363999962807</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028" s="6" t="s">
         <v>6</v>
       </c>
@@ -23003,7 +23013,7 @@
         <v>440.79384000040591</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029" s="6" t="s">
         <v>6</v>
       </c>
@@ -23025,7 +23035,7 @@
         <v>437.02116000000387</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1030" s="6" t="s">
         <v>6</v>
       </c>
@@ -23047,7 +23057,7 @@
         <v>434.7304800003767</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1031" s="6" t="s">
         <v>6</v>
       </c>
@@ -23069,7 +23079,7 @@
         <v>429.16626999992877</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1032" s="6" t="s">
         <v>6</v>
       </c>
@@ -23091,7 +23101,7 @@
         <v>439.27240000013262</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033" s="6" t="s">
         <v>6</v>
       </c>
@@ -23113,7 +23123,7 @@
         <v>440.93379999976605</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034" s="6" t="s">
         <v>6</v>
       </c>
@@ -23135,7 +23145,7 @@
         <v>429.65058000013232</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1035" s="6" t="s">
         <v>6</v>
       </c>
@@ -23157,7 +23167,7 @@
         <v>435.43728999979794</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1036" s="6" t="s">
         <v>6</v>
       </c>
@@ -23179,7 +23189,7 @@
         <v>436.21528999973089</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1037" s="6" t="s">
         <v>6</v>
       </c>
@@ -23201,7 +23211,7 @@
         <v>434.09571999963373</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1038" s="6" t="s">
         <v>6</v>
       </c>
@@ -23223,7 +23233,7 @@
         <v>428.48993000015616</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1039" s="6" t="s">
         <v>6</v>
       </c>
@@ -23245,7 +23255,7 @@
         <v>433.91151000000536</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1040" s="6" t="s">
         <v>6</v>
       </c>
@@ -23267,7 +23277,7 @@
         <v>435.85001999977976</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="6" t="s">
         <v>6</v>
       </c>
@@ -23289,7 +23299,7 @@
         <v>432.32718000002205</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1042" s="6" t="s">
         <v>6</v>
       </c>
@@ -23311,7 +23321,7 @@
         <v>430.42303000018001</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1043" s="6" t="s">
         <v>6</v>
       </c>
@@ -23333,7 +23343,7 @@
         <v>435.54777999967337</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1044" s="6" t="s">
         <v>6</v>
       </c>
@@ -23355,7 +23365,7 @@
         <v>436.49079999979585</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1045" s="6" t="s">
         <v>6</v>
       </c>
@@ -23377,7 +23387,7 @@
         <v>425.1218200000003</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046" s="6" t="s">
         <v>6</v>
       </c>
@@ -23399,7 +23409,7 @@
         <v>441.1869099996984</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047" s="6" t="s">
         <v>6</v>
       </c>
@@ -23421,7 +23431,7 @@
         <v>429.6773800002411</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048" s="6" t="s">
         <v>6</v>
       </c>
@@ -23443,7 +23453,7 @@
         <v>427.13472000043839</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1049" s="6" t="s">
         <v>6</v>
       </c>
@@ -23465,7 +23475,7 @@
         <v>432.52568999957293</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050" s="6" t="s">
         <v>6</v>
       </c>
@@ -23487,7 +23497,7 @@
         <v>427.77550000045449</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051" s="6" t="s">
         <v>6</v>
       </c>
@@ -23509,7 +23519,7 @@
         <v>434.0607599997893</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052" s="6" t="s">
         <v>6</v>
       </c>
@@ -23531,7 +23541,7 @@
         <v>437.980019999668</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="6" t="s">
         <v>6</v>
       </c>
@@ -23553,7 +23563,7 @@
         <v>433.60319000016898</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054" s="6" t="s">
         <v>6</v>
       </c>
@@ -23575,7 +23585,7 @@
         <v>428.57201000023633</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055" s="6" t="s">
         <v>6</v>
       </c>
@@ -23597,7 +23607,7 @@
         <v>438.11670000012964</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1056" s="6" t="s">
         <v>6</v>
       </c>
@@ -23619,7 +23629,7 @@
         <v>436.9221700001508</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" s="6" t="s">
         <v>6</v>
       </c>
@@ -23641,7 +23651,7 @@
         <v>438.70273999962956</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" s="6" t="s">
         <v>6</v>
       </c>
@@ -23663,7 +23673,7 @@
         <v>436.97463999968022</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" s="6" t="s">
         <v>6</v>
       </c>
@@ -23685,7 +23695,7 @@
         <v>431.23878999985754</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" s="6" t="s">
         <v>6</v>
       </c>
@@ -23707,7 +23717,7 @@
         <v>434.71296999976039</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" s="6" t="s">
         <v>6</v>
       </c>
@@ -23729,7 +23739,7 @@
         <v>429.34559000004083</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" s="6" t="s">
         <v>6</v>
       </c>
@@ -23751,7 +23761,7 @@
         <v>426.24691000021994</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" s="6" t="s">
         <v>6</v>
       </c>
@@ -23773,7 +23783,7 @@
         <v>436.28579999972135</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="6" t="s">
         <v>6</v>
       </c>
@@ -23795,7 +23805,7 @@
         <v>425.96592000033706</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" s="6" t="s">
         <v>6</v>
       </c>
@@ -23817,7 +23827,7 @@
         <v>434.06403999961913</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" s="6" t="s">
         <v>6</v>
       </c>
@@ -23839,7 +23849,7 @@
         <v>432.08555999957025</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" s="6" t="s">
         <v>6</v>
       </c>
@@ -23861,7 +23871,7 @@
         <v>435.72764000017196</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" s="6" t="s">
         <v>6</v>
       </c>
@@ -23883,7 +23893,7 @@
         <v>431.04141000006348</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" s="6" t="s">
         <v>6</v>
       </c>
@@ -23905,7 +23915,7 @@
         <v>436.51759999990463</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" s="6" t="s">
         <v>6</v>
       </c>
@@ -23927,7 +23937,7 @@
         <v>432.51914000045508</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" s="6" t="s">
         <v>6</v>
       </c>
@@ -23949,7 +23959,7 @@
         <v>435.9288200000301</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" s="6" t="s">
         <v>6</v>
       </c>
@@ -23971,7 +23981,7 @@
         <v>437.84934999980032</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073" s="6" t="s">
         <v>6</v>
       </c>
@@ -23993,7 +24003,7 @@
         <v>435.80530000012368</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074" s="6" t="s">
         <v>6</v>
       </c>
@@ -24015,7 +24025,7 @@
         <v>433.60372000001371</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075" s="6" t="s">
         <v>6</v>
       </c>
@@ -24037,7 +24047,7 @@
         <v>437.15122000034899</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="6" t="s">
         <v>6</v>
       </c>
@@ -24059,7 +24069,7 @@
         <v>432.30645999964327</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" s="6" t="s">
         <v>6</v>
       </c>
@@ -24081,7 +24091,7 @@
         <v>437.05558000039309</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" s="6" t="s">
         <v>6</v>
       </c>
@@ -24103,7 +24113,7 @@
         <v>437.60445000045002</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" s="6" t="s">
         <v>6</v>
       </c>
@@ -24125,7 +24135,7 @@
         <v>427.66889000032097</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" s="6" t="s">
         <v>6</v>
       </c>
@@ -24147,7 +24157,7 @@
         <v>422.74151999969035</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" s="6" t="s">
         <v>6</v>
       </c>
@@ -24169,7 +24179,7 @@
         <v>433.28062999993563</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" s="6" t="s">
         <v>6</v>
       </c>
@@ -24191,7 +24201,7 @@
         <v>432.14737999998033</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" s="6" t="s">
         <v>6</v>
       </c>
@@ -24213,7 +24223,7 @@
         <v>433.78304999973625</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" s="6" t="s">
         <v>6</v>
       </c>
@@ -24235,7 +24245,7 @@
         <v>436.06443000026047</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" s="6" t="s">
         <v>6</v>
       </c>
@@ -24257,7 +24267,7 @@
         <v>431.82703000027686</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" s="6" t="s">
         <v>6</v>
       </c>
@@ -24279,7 +24289,7 @@
         <v>438.72900000028312</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" s="6" t="s">
         <v>6</v>
       </c>
@@ -24301,7 +24311,7 @@
         <v>432.73563000001013</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="6" t="s">
         <v>6</v>
       </c>
@@ -24323,7 +24333,7 @@
         <v>436.89209000021219</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1089" s="6" t="s">
         <v>6</v>
       </c>
@@ -24345,7 +24355,7 @@
         <v>435.35969000030309</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090" s="6" t="s">
         <v>6</v>
       </c>
@@ -24367,7 +24377,7 @@
         <v>436.55970999971032</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1091" s="6" t="s">
         <v>6</v>
       </c>
@@ -24389,7 +24399,7 @@
         <v>428.59934999980032</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092" s="6" t="s">
         <v>6</v>
       </c>
@@ -24411,7 +24421,7 @@
         <v>439.73759000003338</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093" s="6" t="s">
         <v>6</v>
       </c>
@@ -24433,7 +24443,7 @@
         <v>431.31357999984175</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1094" s="6" t="s">
         <v>6</v>
       </c>
@@ -24455,7 +24465,7 @@
         <v>431.45961999986321</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095" s="6" t="s">
         <v>6</v>
       </c>
@@ -24477,7 +24487,7 @@
         <v>436.13334000017494</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096" s="6" t="s">
         <v>6</v>
       </c>
@@ -24499,7 +24509,7 @@
         <v>422.48292000032961</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1097" s="6" t="s">
         <v>6</v>
       </c>
@@ -24521,7 +24531,7 @@
         <v>439.39532000012696</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098" s="6" t="s">
         <v>6</v>
       </c>
@@ -24543,7 +24553,7 @@
         <v>443.28182000014931</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1099" s="6" t="s">
         <v>6</v>
       </c>
